--- a/data/Career_Connections_Database.xlsx
+++ b/data/Career_Connections_Database.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBCFAC-0942-4F90-BC1C-55F4D38C080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46AA87D-9D1E-4F70-B03B-ED4DA181143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships" sheetId="1" r:id="rId1"/>
-    <sheet name="Seaonal Jobs" sheetId="2" r:id="rId2"/>
+    <sheet name="Seasonal Jobs" sheetId="2" r:id="rId2"/>
     <sheet name="Year-round Jobs" sheetId="3" r:id="rId3"/>
     <sheet name="Closed Positions" sheetId="8" r:id="rId4"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="363">
   <si>
     <t>Organization</t>
   </si>
@@ -35,16 +35,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Due </t>
-  </si>
-  <si>
-    <t>Contact info 
-(if applicable)</t>
-  </si>
-  <si>
-    <t>Open to Intl. Students</t>
   </si>
   <si>
     <t>Atlantic Brewing Company &amp; Bar Habor Cellars</t>
@@ -158,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Contact ben@theoceanarium.org if interested </t>
-  </si>
-  <si>
-    <t>Rolling basis</t>
   </si>
   <si>
     <t>The Jonathan Fisher House</t>
@@ -1163,6 +1150,15 @@
   <si>
     <t>Type</t>
   </si>
+  <si>
+    <t xml:space="preserve">Application_Due </t>
+  </si>
+  <si>
+    <t>Contact_info_(if_applicable)</t>
+  </si>
+  <si>
+    <t>Open_to_Intl._Students</t>
+  </si>
 </sst>
 </file>
 
@@ -1946,7 +1942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1958,7 +1954,7 @@
     <col min="7" max="7" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26">
+    <row r="1" spans="1:30" ht="26.5" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1974,17 +1970,17 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
+      <c r="F1" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>362</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2007,30 +2003,30 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" thickTop="1">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
@@ -2056,28 +2052,28 @@
     </row>
     <row r="3" spans="1:30" ht="14">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
@@ -2103,25 +2099,25 @@
     </row>
     <row r="4" spans="1:30" ht="26">
       <c r="A4" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2148,22 +2144,22 @@
     </row>
     <row r="5" spans="1:30" ht="25.5">
       <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2190,26 +2186,26 @@
     </row>
     <row r="6" spans="1:30" ht="50.5">
       <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="13">
         <v>45366</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
@@ -2235,19 +2231,19 @@
     </row>
     <row r="7" spans="1:30" ht="39">
       <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="14">
         <v>45366</v>
@@ -2279,19 +2275,19 @@
     </row>
     <row r="8" spans="1:30" ht="88">
       <c r="A8" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="17">
         <v>15.53</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="13">
         <v>45380</v>
@@ -2323,22 +2319,22 @@
     </row>
     <row r="9" spans="1:30" ht="38">
       <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="1"/>
@@ -2367,27 +2363,27 @@
     </row>
     <row r="10" spans="1:30" ht="25.5">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2413,22 +2409,22 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -2457,27 +2453,27 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -2503,27 +2499,27 @@
     </row>
     <row r="13" spans="1:30" ht="52">
       <c r="A13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -2549,27 +2545,27 @@
     </row>
     <row r="14" spans="1:30" ht="26">
       <c r="A14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2595,22 +2591,22 @@
     </row>
     <row r="15" spans="1:30" ht="26">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="1"/>
@@ -2639,22 +2635,22 @@
     </row>
     <row r="16" spans="1:30" ht="26">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="1"/>
@@ -34233,7 +34229,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -34253,7 +34249,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>2</v>
@@ -34262,16 +34258,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="29"/>
@@ -34297,22 +34293,22 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="F2" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="21"/>
@@ -34341,22 +34337,22 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>79</v>
-      </c>
       <c r="F3" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="21"/>
@@ -34385,22 +34381,22 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="21"/>
@@ -34429,22 +34425,22 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="21"/>
@@ -34473,22 +34469,22 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>91</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="31"/>
@@ -34517,22 +34513,22 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="31"/>
@@ -34561,22 +34557,22 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>96</v>
-      </c>
       <c r="E8" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="31"/>
@@ -34605,22 +34601,22 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="31"/>
@@ -34649,22 +34645,22 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="21"/>
@@ -34693,22 +34689,22 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="21"/>
@@ -34737,25 +34733,25 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -34783,29 +34779,29 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="G13" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -34831,23 +34827,23 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -34875,22 +34871,22 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="21"/>
@@ -34919,22 +34915,22 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="21"/>
@@ -34963,25 +34959,25 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -35009,25 +35005,25 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>134</v>
-      </c>
       <c r="C18" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -35055,22 +35051,22 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="31" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="21"/>
@@ -35099,22 +35095,22 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="21"/>
@@ -35143,22 +35139,22 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>143</v>
-      </c>
       <c r="C21" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="21"/>
@@ -35187,22 +35183,22 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="21"/>
@@ -35231,22 +35227,22 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="21"/>
@@ -35275,22 +35271,22 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="21"/>
@@ -35319,29 +35315,29 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>158</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -35367,25 +35363,25 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -35413,29 +35409,29 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -35502,8 +35498,8 @@
   </sheetPr>
   <dimension ref="A1:AD998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35513,7 +35509,7 @@
     <col min="4" max="4" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26">
+    <row r="1" spans="1:30" ht="39">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -35521,7 +35517,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>2</v>
@@ -35530,16 +35526,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="29"/>
@@ -35565,29 +35561,29 @@
     </row>
     <row r="2" spans="1:30" ht="25.5">
       <c r="A2" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>174</v>
       </c>
       <c r="F2" s="43">
         <v>45366</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -35613,19 +35609,19 @@
     </row>
     <row r="3" spans="1:30" ht="38">
       <c r="A3" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>181</v>
       </c>
       <c r="F3" s="47">
         <v>45383</v>
@@ -35657,25 +35653,25 @@
     </row>
     <row r="4" spans="1:30" ht="38">
       <c r="A4" s="31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E4" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -35703,48 +35699,48 @@
     </row>
     <row r="5" spans="1:30" ht="50.5">
       <c r="A5" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="I5" s="53" t="s">
         <v>187</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
@@ -39736,13 +39732,13 @@
   </sheetPr>
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="26.5" thickBot="1">
+    <row r="1" spans="1:31" ht="39.5" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -39750,7 +39746,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>2</v>
@@ -39759,16 +39755,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="29"/>
@@ -39795,19 +39791,19 @@
     </row>
     <row r="2" spans="1:31" ht="39.5" thickTop="1">
       <c r="A2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>202</v>
       </c>
       <c r="F2" s="64">
         <v>45320</v>
@@ -39840,25 +39836,25 @@
     </row>
     <row r="3" spans="1:31" ht="104">
       <c r="A3" s="31" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F3" s="64">
         <v>45322</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -39887,25 +39883,25 @@
     </row>
     <row r="4" spans="1:31" ht="26">
       <c r="A4" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F4" s="13">
         <v>45323</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H4" s="65"/>
       <c r="I4" s="1"/>
@@ -39933,19 +39929,19 @@
     </row>
     <row r="5" spans="1:31" ht="63">
       <c r="A5" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F5" s="13">
         <v>45327</v>
@@ -39977,19 +39973,19 @@
     </row>
     <row r="6" spans="1:31" ht="26">
       <c r="A6" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F6" s="13">
         <v>45327</v>
@@ -40021,19 +40017,19 @@
     </row>
     <row r="7" spans="1:31" ht="26">
       <c r="A7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F7" s="13">
         <v>45327</v>
@@ -40065,19 +40061,19 @@
     </row>
     <row r="8" spans="1:31" ht="39">
       <c r="A8" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F8" s="13">
         <v>45327</v>
@@ -40085,7 +40081,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -40110,19 +40106,19 @@
     </row>
     <row r="9" spans="1:31" ht="52">
       <c r="A9" s="31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F9" s="64">
         <v>45329</v>
@@ -40155,19 +40151,19 @@
     </row>
     <row r="10" spans="1:31" ht="39">
       <c r="A10" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F10" s="64">
         <v>45329</v>
@@ -40175,7 +40171,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -40202,19 +40198,19 @@
     </row>
     <row r="11" spans="1:31" ht="39.5" thickBot="1">
       <c r="A11" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="F11" s="64">
         <v>45332</v>
@@ -40222,7 +40218,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -40249,19 +40245,19 @@
     </row>
     <row r="12" spans="1:31" ht="78.5" thickTop="1">
       <c r="A12" s="66" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F12" s="70">
         <v>45333</v>
@@ -40294,19 +40290,19 @@
     </row>
     <row r="13" spans="1:31" ht="63">
       <c r="A13" s="31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F13" s="64">
         <v>45334</v>
@@ -40339,19 +40335,19 @@
     </row>
     <row r="14" spans="1:31" ht="39">
       <c r="A14" s="31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F14" s="64">
         <v>45334</v>
@@ -40359,7 +40355,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -40386,19 +40382,19 @@
     </row>
     <row r="15" spans="1:31" ht="39">
       <c r="A15" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F15" s="64">
         <v>45334</v>
@@ -40431,19 +40427,19 @@
     </row>
     <row r="16" spans="1:31" ht="39.5" thickBot="1">
       <c r="A16" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F16" s="64">
         <v>45334</v>
@@ -40476,16 +40472,16 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" customHeight="1" thickTop="1">
       <c r="A17" s="71" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E17" s="58">
         <v>45337</v>
@@ -40518,22 +40514,22 @@
     </row>
     <row r="18" spans="1:31" ht="15.75" customHeight="1">
       <c r="A18" s="75" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C18" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>256</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>260</v>
       </c>
       <c r="E18" s="60">
         <v>45337</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -40562,16 +40558,16 @@
     </row>
     <row r="19" spans="1:31" ht="62.5">
       <c r="A19" s="61" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E19" s="60">
         <v>45337</v>
@@ -40604,19 +40600,19 @@
     </row>
     <row r="20" spans="1:31" ht="63">
       <c r="A20" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F20" s="64">
         <v>45337</v>
@@ -40649,19 +40645,19 @@
     </row>
     <row r="21" spans="1:31" ht="63">
       <c r="A21" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>269</v>
-      </c>
       <c r="C21" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F21" s="64">
         <v>45337</v>
@@ -40694,19 +40690,19 @@
     </row>
     <row r="22" spans="1:31" ht="38">
       <c r="A22" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>270</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>274</v>
       </c>
       <c r="F22" s="64">
         <v>45337</v>
@@ -40714,7 +40710,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="38" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -40740,19 +40736,19 @@
     </row>
     <row r="23" spans="1:31" ht="26">
       <c r="A23" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F23" s="64">
         <v>45337</v>
@@ -40785,27 +40781,27 @@
     </row>
     <row r="24" spans="1:31" ht="39">
       <c r="A24" s="31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="92" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -40831,19 +40827,19 @@
     </row>
     <row r="25" spans="1:31" ht="52">
       <c r="A25" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F25" s="64">
         <v>45337</v>
@@ -40876,19 +40872,19 @@
     </row>
     <row r="26" spans="1:31" ht="78">
       <c r="A26" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>289</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>293</v>
       </c>
       <c r="F26" s="64">
         <v>45338</v>
@@ -40921,19 +40917,19 @@
     </row>
     <row r="27" spans="1:31" ht="65">
       <c r="A27" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F27" s="64">
         <v>45338</v>
@@ -40966,19 +40962,19 @@
     </row>
     <row r="28" spans="1:31" ht="39">
       <c r="A28" s="31" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F28" s="64">
         <v>45341</v>
@@ -41011,19 +41007,19 @@
     </row>
     <row r="29" spans="1:31" ht="52">
       <c r="A29" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F29" s="64">
         <v>45345</v>
@@ -41056,19 +41052,19 @@
     </row>
     <row r="30" spans="1:31" ht="65">
       <c r="A30" s="80" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F30" s="64">
         <v>45346</v>
@@ -41101,19 +41097,19 @@
     </row>
     <row r="31" spans="1:31" ht="52.5" thickBot="1">
       <c r="A31" s="31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F31" s="64">
         <v>45350</v>
@@ -41121,7 +41117,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
@@ -41148,27 +41144,27 @@
     </row>
     <row r="32" spans="1:31" ht="13.5" thickTop="1">
       <c r="A32" s="68" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82"/>
       <c r="I32" s="69" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K32" s="68"/>
       <c r="L32" s="68"/>
@@ -41194,19 +41190,19 @@
     </row>
     <row r="33" spans="1:31" ht="26" thickBot="1">
       <c r="A33" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>170</v>
-      </c>
-      <c r="B33" s="83" t="s">
-        <v>317</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>174</v>
       </c>
       <c r="F33" s="64">
         <v>45351</v>
@@ -41239,22 +41235,22 @@
     </row>
     <row r="34" spans="1:31" ht="38.5" thickTop="1">
       <c r="A34" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="F34" s="66" t="s">
         <v>319</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="F34" s="66" t="s">
-        <v>323</v>
       </c>
       <c r="G34" s="82"/>
       <c r="H34" s="82"/>
@@ -41284,19 +41280,19 @@
     </row>
     <row r="35" spans="1:31" ht="63">
       <c r="A35" s="31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F35" s="84">
         <v>45352</v>
@@ -41304,7 +41300,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
@@ -41330,25 +41326,25 @@
     </row>
     <row r="36" spans="1:31" ht="25.5">
       <c r="A36" s="31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F36" s="64">
         <v>45352</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H36" s="85"/>
       <c r="I36" s="21"/>
@@ -41377,24 +41373,23 @@
     </row>
     <row r="37" spans="1:31" ht="65">
       <c r="A37" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="E37" s="64">
+      <c r="E37" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="F37" s="64">
         <v>45352</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -41422,21 +41417,20 @@
     </row>
     <row r="38" spans="1:31" ht="13">
       <c r="A38" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B38" s="86" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="E38" s="87">
+        <v>336</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" s="87">
         <v>45354</v>
       </c>
-      <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -41465,29 +41459,29 @@
     </row>
     <row r="39" spans="1:31" ht="52">
       <c r="A39" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F39" s="64">
         <v>45361</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
@@ -41513,19 +41507,19 @@
     </row>
     <row r="40" spans="1:31" ht="52">
       <c r="A40" s="34" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F40" s="64">
         <v>45359</v>
@@ -41558,19 +41552,19 @@
     </row>
     <row r="41" spans="1:31" ht="39.5" thickBot="1">
       <c r="A41" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>348</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>352</v>
       </c>
       <c r="F41" s="64">
         <v>45359</v>
@@ -41603,19 +41597,19 @@
     </row>
     <row r="42" spans="1:31" ht="52.5" thickTop="1">
       <c r="A42" s="66" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B42" s="88" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F42" s="89">
         <v>45359</v>
@@ -41648,22 +41642,22 @@
     </row>
     <row r="43" spans="1:31" ht="38">
       <c r="A43" s="36" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -41691,25 +41685,25 @@
     </row>
     <row r="44" spans="1:31" ht="38">
       <c r="A44" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G44" s="51" t="s">
         <v>358</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>362</v>
       </c>
       <c r="H44" s="51"/>
     </row>
@@ -41757,8 +41751,8 @@
     <hyperlink ref="I35" r:id="rId40" xr:uid="{00000000-0004-0000-0700-000027000000}"/>
     <hyperlink ref="E36" r:id="rId41" xr:uid="{00000000-0004-0000-0700-000028000000}"/>
     <hyperlink ref="G36" r:id="rId42" xr:uid="{00000000-0004-0000-0700-000029000000}"/>
-    <hyperlink ref="D37" r:id="rId43" xr:uid="{00000000-0004-0000-0700-00002A000000}"/>
-    <hyperlink ref="D38" r:id="rId44" xr:uid="{00000000-0004-0000-0700-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId43" xr:uid="{00000000-0004-0000-0700-00002A000000}"/>
+    <hyperlink ref="E38" r:id="rId44" xr:uid="{00000000-0004-0000-0700-00002B000000}"/>
     <hyperlink ref="E39" r:id="rId45" xr:uid="{00000000-0004-0000-0700-00002C000000}"/>
     <hyperlink ref="I39" r:id="rId46" xr:uid="{00000000-0004-0000-0700-00002D000000}"/>
     <hyperlink ref="E40" r:id="rId47" xr:uid="{00000000-0004-0000-0700-00002E000000}"/>

--- a/data/Career_Connections_Database.xlsx
+++ b/data/Career_Connections_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46AA87D-9D1E-4F70-B03B-ED4DA181143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A4346-0E8C-4FAD-9E77-DE204FE47097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="358">
   <si>
     <t>Organization</t>
   </si>
@@ -246,16 +246,10 @@
     <t>https://www.gardenpreserve.org/_files/ugd/e93403_d73e653fd9924bcbb336ff3d44f5c079.pdf</t>
   </si>
   <si>
-    <t>Interviews begin in March</t>
-  </si>
-  <si>
     <t>Gardener @ Thuya Garden</t>
   </si>
   <si>
     <t>https://www.gardenpreserve.org/_files/ugd/e93403_ac4d8f52f8e143e1ae759127b977cf0e.pdf</t>
-  </si>
-  <si>
-    <t>Interviews are held in April/May</t>
   </si>
   <si>
     <t>Gardener @ McAlpin Farm</t>
@@ -271,9 +265,6 @@
   </si>
   <si>
     <t>https://www.gardenpreserve.org/_files/ugd/e93403_2464859b3b3d4aa8b903f43305a03527.pdf</t>
-  </si>
-  <si>
-    <t>Interviews are held in April</t>
   </si>
   <si>
     <t>Beech Hill Farm</t>
@@ -377,13 +368,7 @@
     <t>https://www.barharborfarm.net/job-opportunity</t>
   </si>
   <si>
-    <t>Contact for info (prior to March likely)</t>
-  </si>
-  <si>
     <t>207-412-8273</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MUYyYIyODFu6Jvoiks-ZV6xf5KndYAGs/view?usp=sharing</t>
   </si>
   <si>
     <t>Sea Glass Gardens</t>
@@ -600,12 +585,6 @@
   </si>
   <si>
     <t>https://www.hancockcountyswcd.org/news/now-hiring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accepting Resumes until filled </t>
-  </si>
-  <si>
-    <t>CLOSED</t>
   </si>
   <si>
     <t>OpenTable MDI</t>
@@ -908,12 +887,6 @@
     <t>https://www.dhs.gov/homeland-security-careers/public-affairs</t>
   </si>
   <si>
-    <t>Feb 15 (for preference)</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wH9eLlNwM6U9tQgObQcU7I28zGdnUlPA/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Quahog Bay Conservancy</t>
   </si>
   <si>
@@ -1004,9 +977,6 @@
     <t>https://www.maineyouthaction.org/</t>
   </si>
   <si>
-    <t>End of Feb</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1TFFnqKsps628Un85i9pIz173ZaKra40Pj9Z0FAxAuxM/edit</t>
   </si>
   <si>
@@ -1026,9 +996,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1QJdy_Zz98Kh_ZmOc3p5xGhLtDdIn-WEg/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Mid-Feb/Rolling Basis</t>
   </si>
   <si>
     <t>Clemson University’s Youth Learning Institute</t>
@@ -1159,17 +1126,34 @@
   <si>
     <t>Open_to_Intl._Students</t>
   </si>
+  <si>
+    <t>Accepting Resumes until filled, CLOSED</t>
+  </si>
+  <si>
+    <t>Application Due Date for preference, https://drive.google.com/file/d/1wH9eLlNwM6U9tQgObQcU7I28zGdnUlPA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Deadline: Interviews are held in April and May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline: Interviews are held in April </t>
+  </si>
+  <si>
+    <t>Application likely prior ro March, https://drive.google.com/file/d/1MUYyYIyODFu6Jvoiks-ZV6xf5KndYAGs/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Deadline: Interviews begin in March</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="mmmm\ d"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="53">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1463,6 +1447,31 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1515,7 +1524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1619,9 +1628,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1703,9 +1709,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1719,6 +1722,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1940,9 +1953,9 @@
   </sheetPr>
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1961,8 +1974,8 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="91" t="s">
-        <v>359</v>
+      <c r="C1" s="89" t="s">
+        <v>348</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1971,16 +1984,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2099,7 +2112,7 @@
     </row>
     <row r="4" spans="1:30" ht="26">
       <c r="A4" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -2334,7 +2347,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="1"/>
@@ -2378,7 +2391,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
@@ -2424,7 +2437,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -2650,7 +2663,7 @@
         <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="1"/>
@@ -34229,7 +34242,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+      <selection activeCell="F5" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -34248,8 +34261,8 @@
       <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
-        <v>359</v>
+      <c r="C1" s="88" t="s">
+        <v>348</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>2</v>
@@ -34258,16 +34271,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="29"/>
@@ -34307,12 +34320,14 @@
       <c r="E2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>73</v>
+      <c r="F2" s="96">
+        <v>45352</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="I2" s="93" t="s">
+        <v>357</v>
+      </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -34340,7 +34355,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>70</v>
@@ -34349,14 +34364,16 @@
         <v>71</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="F3" s="96">
+        <v>45383</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="93" t="s">
+        <v>354</v>
+      </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -34384,23 +34401,25 @@
         <v>68</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F4" s="96">
+        <v>45383</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="93" t="s">
+        <v>354</v>
+      </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -34428,7 +34447,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>70</v>
@@ -34437,14 +34456,16 @@
         <v>71</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="F5" s="96">
+        <v>45383</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="93" t="s">
+        <v>355</v>
+      </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
@@ -34469,22 +34490,22 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="31"/>
@@ -34513,10 +34534,10 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>70</v>
@@ -34525,10 +34546,10 @@
         <v>62</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="31"/>
@@ -34557,22 +34578,22 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="31"/>
@@ -34601,10 +34622,10 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>70</v>
@@ -34613,10 +34634,10 @@
         <v>62</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="31"/>
@@ -34645,10 +34666,10 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>70</v>
@@ -34657,10 +34678,10 @@
         <v>62</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="21"/>
@@ -34689,22 +34710,22 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>101</v>
-      </c>
       <c r="F11" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="21"/>
@@ -34733,25 +34754,25 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -34779,29 +34800,29 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>102</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H13" s="21"/>
-      <c r="I13" s="38" t="s">
-        <v>113</v>
+      <c r="I13" s="95" t="s">
+        <v>356</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -34827,23 +34848,23 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -34871,22 +34892,22 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="21"/>
@@ -34915,22 +34936,22 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="21"/>
@@ -34959,25 +34980,25 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -35005,25 +35026,25 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -35051,22 +35072,22 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="21"/>
@@ -35095,22 +35116,22 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="21"/>
@@ -35139,22 +35160,22 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="21"/>
@@ -35183,22 +35204,22 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="21"/>
@@ -35227,22 +35248,22 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="21"/>
@@ -35271,22 +35292,22 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="21"/>
@@ -35315,29 +35336,29 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -35363,25 +35384,25 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -35409,29 +35430,29 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="38" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -35456,6 +35477,7 @@
       <c r="AD27" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="51" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -35469,7 +35491,7 @@
     <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="I13" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="I13" r:id="rId13" display="https://drive.google.com/file/d/1MUYyYIyODFu6Jvoiks-ZV6xf5KndYAGs/view?usp=sharing" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
@@ -35499,7 +35521,7 @@
   <dimension ref="A1:AD998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35517,7 +35539,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>2</v>
@@ -35526,16 +35548,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="29"/>
@@ -35561,29 +35583,29 @@
     </row>
     <row r="2" spans="1:30" ht="25.5">
       <c r="A2" s="31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F2" s="43">
         <v>45366</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -35609,21 +35631,21 @@
     </row>
     <row r="3" spans="1:30" ht="38">
       <c r="A3" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="47">
+        <v>172</v>
+      </c>
+      <c r="F3" s="43">
         <v>45383</v>
       </c>
       <c r="G3" s="15"/>
@@ -35656,22 +35678,22 @@
         <v>60</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>105</v>
+      <c r="F4" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -35698,4016 +35720,4014 @@
       <c r="AD4" s="21"/>
     </row>
     <row r="5" spans="1:30" ht="50.5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="I5" s="52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="C6" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E6" s="54" t="s">
         <v>184</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>191</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>192</v>
+      <c r="G6" s="55" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B7" s="57"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B8" s="57"/>
+      <c r="B8" s="56"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B9" s="57"/>
+      <c r="B9" s="56"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B10" s="57"/>
+      <c r="B10" s="56"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B11" s="57"/>
+      <c r="B11" s="56"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B12" s="57"/>
+      <c r="B12" s="56"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B13" s="57"/>
+      <c r="B13" s="56"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B14" s="57"/>
+      <c r="B14" s="56"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B15" s="57"/>
+      <c r="B15" s="56"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="57"/>
+      <c r="B17" s="56"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="57"/>
+      <c r="B18" s="56"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="12.5">
-      <c r="B19" s="57"/>
+      <c r="B19" s="56"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" ht="12.5">
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" ht="12.5">
-      <c r="B21" s="57"/>
+      <c r="B21" s="56"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" ht="12.5">
-      <c r="B22" s="57"/>
+      <c r="B22" s="56"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="12.5">
-      <c r="B23" s="57"/>
+      <c r="B23" s="56"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="12.5">
-      <c r="B24" s="57"/>
+      <c r="B24" s="56"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="12.5">
-      <c r="B25" s="57"/>
+      <c r="B25" s="56"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" ht="12.5">
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" ht="12.5">
-      <c r="B27" s="57"/>
+      <c r="B27" s="56"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" ht="12.5">
-      <c r="B28" s="57"/>
+      <c r="B28" s="56"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" ht="12.5">
-      <c r="B29" s="57"/>
+      <c r="B29" s="56"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" ht="12.5">
-      <c r="B30" s="57"/>
+      <c r="B30" s="56"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" ht="12.5">
-      <c r="B31" s="57"/>
+      <c r="B31" s="56"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" ht="12.5">
-      <c r="B32" s="57"/>
+      <c r="B32" s="56"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" ht="12.5">
-      <c r="B33" s="57"/>
+      <c r="B33" s="56"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" ht="12.5">
-      <c r="B34" s="57"/>
+      <c r="B34" s="56"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" ht="12.5">
-      <c r="B35" s="57"/>
+      <c r="B35" s="56"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" ht="12.5">
-      <c r="B36" s="57"/>
+      <c r="B36" s="56"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" ht="12.5">
-      <c r="B37" s="57"/>
+      <c r="B37" s="56"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" ht="12.5">
-      <c r="B38" s="57"/>
+      <c r="B38" s="56"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6" ht="12.5">
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6" ht="12.5">
-      <c r="B40" s="57"/>
+      <c r="B40" s="56"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6" ht="12.5">
-      <c r="B41" s="57"/>
+      <c r="B41" s="56"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6" ht="12.5">
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6" ht="12.5">
-      <c r="B43" s="57"/>
+      <c r="B43" s="56"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6" ht="12.5">
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" ht="12.5">
-      <c r="B45" s="57"/>
+      <c r="B45" s="56"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6" ht="12.5">
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6" ht="12.5">
-      <c r="B47" s="57"/>
+      <c r="B47" s="56"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" ht="12.5">
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6" ht="12.5">
-      <c r="B49" s="57"/>
+      <c r="B49" s="56"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6" ht="12.5">
-      <c r="B50" s="57"/>
+      <c r="B50" s="56"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6" ht="12.5">
-      <c r="B51" s="57"/>
+      <c r="B51" s="56"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6" ht="12.5">
-      <c r="B52" s="57"/>
+      <c r="B52" s="56"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" ht="12.5">
-      <c r="B53" s="57"/>
+      <c r="B53" s="56"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="2:6" ht="12.5">
-      <c r="B54" s="57"/>
+      <c r="B54" s="56"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:6" ht="12.5">
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:6" ht="12.5">
-      <c r="B56" s="57"/>
+      <c r="B56" s="56"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" ht="12.5">
-      <c r="B57" s="57"/>
+      <c r="B57" s="56"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6" ht="12.5">
-      <c r="B58" s="57"/>
+      <c r="B58" s="56"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:6" ht="12.5">
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="2:6" ht="12.5">
-      <c r="B60" s="57"/>
+      <c r="B60" s="56"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="2:6" ht="12.5">
-      <c r="B61" s="57"/>
+      <c r="B61" s="56"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="2:6" ht="12.5">
-      <c r="B62" s="57"/>
+      <c r="B62" s="56"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="2:6" ht="12.5">
-      <c r="B63" s="57"/>
+      <c r="B63" s="56"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="2:6" ht="12.5">
-      <c r="B64" s="57"/>
+      <c r="B64" s="56"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="2:6" ht="12.5">
-      <c r="B65" s="57"/>
+      <c r="B65" s="56"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="2:6" ht="12.5">
-      <c r="B66" s="57"/>
+      <c r="B66" s="56"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="2:6" ht="12.5">
-      <c r="B67" s="57"/>
+      <c r="B67" s="56"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="2:6" ht="12.5">
-      <c r="B68" s="57"/>
+      <c r="B68" s="56"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="2:6" ht="12.5">
-      <c r="B69" s="57"/>
+      <c r="B69" s="56"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="2:6" ht="12.5">
-      <c r="B70" s="57"/>
+      <c r="B70" s="56"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="2:6" ht="12.5">
-      <c r="B71" s="57"/>
+      <c r="B71" s="56"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="2:6" ht="12.5">
-      <c r="B72" s="57"/>
+      <c r="B72" s="56"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="2:6" ht="12.5">
-      <c r="B73" s="57"/>
+      <c r="B73" s="56"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="2:6" ht="12.5">
-      <c r="B74" s="57"/>
+      <c r="B74" s="56"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="2:6" ht="12.5">
-      <c r="B75" s="57"/>
+      <c r="B75" s="56"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="2:6" ht="12.5">
-      <c r="B76" s="57"/>
+      <c r="B76" s="56"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="2:6" ht="12.5">
-      <c r="B77" s="57"/>
+      <c r="B77" s="56"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="2:6" ht="12.5">
-      <c r="B78" s="57"/>
+      <c r="B78" s="56"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="2:6" ht="12.5">
-      <c r="B79" s="57"/>
+      <c r="B79" s="56"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="2:6" ht="12.5">
-      <c r="B80" s="57"/>
+      <c r="B80" s="56"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="2:6" ht="12.5">
-      <c r="B81" s="57"/>
+      <c r="B81" s="56"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="2:6" ht="12.5">
-      <c r="B82" s="57"/>
+      <c r="B82" s="56"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="2:6" ht="12.5">
-      <c r="B83" s="57"/>
+      <c r="B83" s="56"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="2:6" ht="12.5">
-      <c r="B84" s="57"/>
+      <c r="B84" s="56"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="2:6" ht="12.5">
-      <c r="B85" s="57"/>
+      <c r="B85" s="56"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="2:6" ht="12.5">
-      <c r="B86" s="57"/>
+      <c r="B86" s="56"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="2:6" ht="12.5">
-      <c r="B87" s="57"/>
+      <c r="B87" s="56"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="2:6" ht="12.5">
-      <c r="B88" s="57"/>
+      <c r="B88" s="56"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="2:6" ht="12.5">
-      <c r="B89" s="57"/>
+      <c r="B89" s="56"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="2:6" ht="12.5">
-      <c r="B90" s="57"/>
+      <c r="B90" s="56"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="2:6" ht="12.5">
-      <c r="B91" s="57"/>
+      <c r="B91" s="56"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="2:6" ht="12.5">
-      <c r="B92" s="57"/>
+      <c r="B92" s="56"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="2:6" ht="12.5">
-      <c r="B93" s="57"/>
+      <c r="B93" s="56"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="2:6" ht="12.5">
-      <c r="B94" s="57"/>
+      <c r="B94" s="56"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="2:6" ht="12.5">
-      <c r="B95" s="57"/>
+      <c r="B95" s="56"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="2:6" ht="12.5">
-      <c r="B96" s="57"/>
+      <c r="B96" s="56"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="2:6" ht="12.5">
-      <c r="B97" s="57"/>
+      <c r="B97" s="56"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="2:6" ht="12.5">
-      <c r="B98" s="57"/>
+      <c r="B98" s="56"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="2:6" ht="12.5">
-      <c r="B99" s="57"/>
+      <c r="B99" s="56"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="2:6" ht="12.5">
-      <c r="B100" s="57"/>
+      <c r="B100" s="56"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="2:6" ht="12.5">
-      <c r="B101" s="57"/>
+      <c r="B101" s="56"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="2:6" ht="12.5">
-      <c r="B102" s="57"/>
+      <c r="B102" s="56"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="2:6" ht="12.5">
-      <c r="B103" s="57"/>
+      <c r="B103" s="56"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="2:6" ht="12.5">
-      <c r="B104" s="57"/>
+      <c r="B104" s="56"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="2:6" ht="12.5">
-      <c r="B105" s="57"/>
+      <c r="B105" s="56"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="2:6" ht="12.5">
-      <c r="B106" s="57"/>
+      <c r="B106" s="56"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="2:6" ht="12.5">
-      <c r="B107" s="57"/>
+      <c r="B107" s="56"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="2:6" ht="12.5">
-      <c r="B108" s="57"/>
+      <c r="B108" s="56"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6" ht="12.5">
-      <c r="B109" s="57"/>
+      <c r="B109" s="56"/>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="2:6" ht="12.5">
-      <c r="B110" s="57"/>
+      <c r="B110" s="56"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="2:6" ht="12.5">
-      <c r="B111" s="57"/>
+      <c r="B111" s="56"/>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="2:6" ht="12.5">
-      <c r="B112" s="57"/>
+      <c r="B112" s="56"/>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="2:6" ht="12.5">
-      <c r="B113" s="57"/>
+      <c r="B113" s="56"/>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="2:6" ht="12.5">
-      <c r="B114" s="57"/>
+      <c r="B114" s="56"/>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="2:6" ht="12.5">
-      <c r="B115" s="57"/>
+      <c r="B115" s="56"/>
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="2:6" ht="12.5">
-      <c r="B116" s="57"/>
+      <c r="B116" s="56"/>
       <c r="F116" s="1"/>
     </row>
     <row r="117" spans="2:6" ht="12.5">
-      <c r="B117" s="57"/>
+      <c r="B117" s="56"/>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="2:6" ht="12.5">
-      <c r="B118" s="57"/>
+      <c r="B118" s="56"/>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="2:6" ht="12.5">
-      <c r="B119" s="57"/>
+      <c r="B119" s="56"/>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="2:6" ht="12.5">
-      <c r="B120" s="57"/>
+      <c r="B120" s="56"/>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="2:6" ht="12.5">
-      <c r="B121" s="57"/>
+      <c r="B121" s="56"/>
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="2:6" ht="12.5">
-      <c r="B122" s="57"/>
+      <c r="B122" s="56"/>
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="2:6" ht="12.5">
-      <c r="B123" s="57"/>
+      <c r="B123" s="56"/>
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="2:6" ht="12.5">
-      <c r="B124" s="57"/>
+      <c r="B124" s="56"/>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="2:6" ht="12.5">
-      <c r="B125" s="57"/>
+      <c r="B125" s="56"/>
       <c r="F125" s="1"/>
     </row>
     <row r="126" spans="2:6" ht="12.5">
-      <c r="B126" s="57"/>
+      <c r="B126" s="56"/>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="2:6" ht="12.5">
-      <c r="B127" s="57"/>
+      <c r="B127" s="56"/>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="2:6" ht="12.5">
-      <c r="B128" s="57"/>
+      <c r="B128" s="56"/>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="2:6" ht="12.5">
-      <c r="B129" s="57"/>
+      <c r="B129" s="56"/>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="2:6" ht="12.5">
-      <c r="B130" s="57"/>
+      <c r="B130" s="56"/>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="2:6" ht="12.5">
-      <c r="B131" s="57"/>
+      <c r="B131" s="56"/>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="2:6" ht="12.5">
-      <c r="B132" s="57"/>
+      <c r="B132" s="56"/>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="2:6" ht="12.5">
-      <c r="B133" s="57"/>
+      <c r="B133" s="56"/>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="2:6" ht="12.5">
-      <c r="B134" s="57"/>
+      <c r="B134" s="56"/>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="2:6" ht="12.5">
-      <c r="B135" s="57"/>
+      <c r="B135" s="56"/>
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="2:6" ht="12.5">
-      <c r="B136" s="57"/>
+      <c r="B136" s="56"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="2:6" ht="12.5">
-      <c r="B137" s="57"/>
+      <c r="B137" s="56"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="2:6" ht="12.5">
-      <c r="B138" s="57"/>
+      <c r="B138" s="56"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="2:6" ht="12.5">
-      <c r="B139" s="57"/>
+      <c r="B139" s="56"/>
       <c r="F139" s="1"/>
     </row>
     <row r="140" spans="2:6" ht="12.5">
-      <c r="B140" s="57"/>
+      <c r="B140" s="56"/>
       <c r="F140" s="1"/>
     </row>
     <row r="141" spans="2:6" ht="12.5">
-      <c r="B141" s="57"/>
+      <c r="B141" s="56"/>
       <c r="F141" s="1"/>
     </row>
     <row r="142" spans="2:6" ht="12.5">
-      <c r="B142" s="57"/>
+      <c r="B142" s="56"/>
       <c r="F142" s="1"/>
     </row>
     <row r="143" spans="2:6" ht="12.5">
-      <c r="B143" s="57"/>
+      <c r="B143" s="56"/>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="2:6" ht="12.5">
-      <c r="B144" s="57"/>
+      <c r="B144" s="56"/>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="2:6" ht="12.5">
-      <c r="B145" s="57"/>
+      <c r="B145" s="56"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="2:6" ht="12.5">
-      <c r="B146" s="57"/>
+      <c r="B146" s="56"/>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="2:6" ht="12.5">
-      <c r="B147" s="57"/>
+      <c r="B147" s="56"/>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6" ht="12.5">
-      <c r="B148" s="57"/>
+      <c r="B148" s="56"/>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="2:6" ht="12.5">
-      <c r="B149" s="57"/>
+      <c r="B149" s="56"/>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6" ht="12.5">
-      <c r="B150" s="57"/>
+      <c r="B150" s="56"/>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6" ht="12.5">
-      <c r="B151" s="57"/>
+      <c r="B151" s="56"/>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6" ht="12.5">
-      <c r="B152" s="57"/>
+      <c r="B152" s="56"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6" ht="12.5">
-      <c r="B153" s="57"/>
+      <c r="B153" s="56"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6" ht="12.5">
-      <c r="B154" s="57"/>
+      <c r="B154" s="56"/>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="2:6" ht="12.5">
-      <c r="B155" s="57"/>
+      <c r="B155" s="56"/>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="2:6" ht="12.5">
-      <c r="B156" s="57"/>
+      <c r="B156" s="56"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="2:6" ht="12.5">
-      <c r="B157" s="57"/>
+      <c r="B157" s="56"/>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="2:6" ht="12.5">
-      <c r="B158" s="57"/>
+      <c r="B158" s="56"/>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="2:6" ht="12.5">
-      <c r="B159" s="57"/>
+      <c r="B159" s="56"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="2:6" ht="12.5">
-      <c r="B160" s="57"/>
+      <c r="B160" s="56"/>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="2:6" ht="12.5">
-      <c r="B161" s="57"/>
+      <c r="B161" s="56"/>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="2:6" ht="12.5">
-      <c r="B162" s="57"/>
+      <c r="B162" s="56"/>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="2:6" ht="12.5">
-      <c r="B163" s="57"/>
+      <c r="B163" s="56"/>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="2:6" ht="12.5">
-      <c r="B164" s="57"/>
+      <c r="B164" s="56"/>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="2:6" ht="12.5">
-      <c r="B165" s="57"/>
+      <c r="B165" s="56"/>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="2:6" ht="12.5">
-      <c r="B166" s="57"/>
+      <c r="B166" s="56"/>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="2:6" ht="12.5">
-      <c r="B167" s="57"/>
+      <c r="B167" s="56"/>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6" ht="12.5">
-      <c r="B168" s="57"/>
+      <c r="B168" s="56"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="2:6" ht="12.5">
-      <c r="B169" s="57"/>
+      <c r="B169" s="56"/>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="2:6" ht="12.5">
-      <c r="B170" s="57"/>
+      <c r="B170" s="56"/>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="2:6" ht="12.5">
-      <c r="B171" s="57"/>
+      <c r="B171" s="56"/>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="2:6" ht="12.5">
-      <c r="B172" s="57"/>
+      <c r="B172" s="56"/>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="2:6" ht="12.5">
-      <c r="B173" s="57"/>
+      <c r="B173" s="56"/>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="2:6" ht="12.5">
-      <c r="B174" s="57"/>
+      <c r="B174" s="56"/>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="2:6" ht="12.5">
-      <c r="B175" s="57"/>
+      <c r="B175" s="56"/>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="2:6" ht="12.5">
-      <c r="B176" s="57"/>
+      <c r="B176" s="56"/>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="2:6" ht="12.5">
-      <c r="B177" s="57"/>
+      <c r="B177" s="56"/>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="2:6" ht="12.5">
-      <c r="B178" s="57"/>
+      <c r="B178" s="56"/>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="2:6" ht="12.5">
-      <c r="B179" s="57"/>
+      <c r="B179" s="56"/>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="2:6" ht="12.5">
-      <c r="B180" s="57"/>
+      <c r="B180" s="56"/>
       <c r="F180" s="1"/>
     </row>
     <row r="181" spans="2:6" ht="12.5">
-      <c r="B181" s="57"/>
+      <c r="B181" s="56"/>
       <c r="F181" s="1"/>
     </row>
     <row r="182" spans="2:6" ht="12.5">
-      <c r="B182" s="57"/>
+      <c r="B182" s="56"/>
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="2:6" ht="12.5">
-      <c r="B183" s="57"/>
+      <c r="B183" s="56"/>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="2:6" ht="12.5">
-      <c r="B184" s="57"/>
+      <c r="B184" s="56"/>
       <c r="F184" s="1"/>
     </row>
     <row r="185" spans="2:6" ht="12.5">
-      <c r="B185" s="57"/>
+      <c r="B185" s="56"/>
       <c r="F185" s="1"/>
     </row>
     <row r="186" spans="2:6" ht="12.5">
-      <c r="B186" s="57"/>
+      <c r="B186" s="56"/>
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="2:6" ht="12.5">
-      <c r="B187" s="57"/>
+      <c r="B187" s="56"/>
       <c r="F187" s="1"/>
     </row>
     <row r="188" spans="2:6" ht="12.5">
-      <c r="B188" s="57"/>
+      <c r="B188" s="56"/>
       <c r="F188" s="1"/>
     </row>
     <row r="189" spans="2:6" ht="12.5">
-      <c r="B189" s="57"/>
+      <c r="B189" s="56"/>
       <c r="F189" s="1"/>
     </row>
     <row r="190" spans="2:6" ht="12.5">
-      <c r="B190" s="57"/>
+      <c r="B190" s="56"/>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="2:6" ht="12.5">
-      <c r="B191" s="57"/>
+      <c r="B191" s="56"/>
       <c r="F191" s="1"/>
     </row>
     <row r="192" spans="2:6" ht="12.5">
-      <c r="B192" s="57"/>
+      <c r="B192" s="56"/>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="2:6" ht="12.5">
-      <c r="B193" s="57"/>
+      <c r="B193" s="56"/>
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="2:6" ht="12.5">
-      <c r="B194" s="57"/>
+      <c r="B194" s="56"/>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="2:6" ht="12.5">
-      <c r="B195" s="57"/>
+      <c r="B195" s="56"/>
       <c r="F195" s="1"/>
     </row>
     <row r="196" spans="2:6" ht="12.5">
-      <c r="B196" s="57"/>
+      <c r="B196" s="56"/>
       <c r="F196" s="1"/>
     </row>
     <row r="197" spans="2:6" ht="12.5">
-      <c r="B197" s="57"/>
+      <c r="B197" s="56"/>
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="2:6" ht="12.5">
-      <c r="B198" s="57"/>
+      <c r="B198" s="56"/>
       <c r="F198" s="1"/>
     </row>
     <row r="199" spans="2:6" ht="12.5">
-      <c r="B199" s="57"/>
+      <c r="B199" s="56"/>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="2:6" ht="12.5">
-      <c r="B200" s="57"/>
+      <c r="B200" s="56"/>
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="2:6" ht="12.5">
-      <c r="B201" s="57"/>
+      <c r="B201" s="56"/>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="2:6" ht="12.5">
-      <c r="B202" s="57"/>
+      <c r="B202" s="56"/>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="2:6" ht="12.5">
-      <c r="B203" s="57"/>
+      <c r="B203" s="56"/>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="2:6" ht="12.5">
-      <c r="B204" s="57"/>
+      <c r="B204" s="56"/>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="2:6" ht="12.5">
-      <c r="B205" s="57"/>
+      <c r="B205" s="56"/>
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="2:6" ht="12.5">
-      <c r="B206" s="57"/>
+      <c r="B206" s="56"/>
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="2:6" ht="12.5">
-      <c r="B207" s="57"/>
+      <c r="B207" s="56"/>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="2:6" ht="12.5">
-      <c r="B208" s="57"/>
+      <c r="B208" s="56"/>
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="2:6" ht="12.5">
-      <c r="B209" s="57"/>
+      <c r="B209" s="56"/>
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="2:6" ht="12.5">
-      <c r="B210" s="57"/>
+      <c r="B210" s="56"/>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="2:6" ht="12.5">
-      <c r="B211" s="57"/>
+      <c r="B211" s="56"/>
       <c r="F211" s="1"/>
     </row>
     <row r="212" spans="2:6" ht="12.5">
-      <c r="B212" s="57"/>
+      <c r="B212" s="56"/>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="2:6" ht="12.5">
-      <c r="B213" s="57"/>
+      <c r="B213" s="56"/>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="2:6" ht="12.5">
-      <c r="B214" s="57"/>
+      <c r="B214" s="56"/>
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="2:6" ht="12.5">
-      <c r="B215" s="57"/>
+      <c r="B215" s="56"/>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="2:6" ht="12.5">
-      <c r="B216" s="57"/>
+      <c r="B216" s="56"/>
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="2:6" ht="12.5">
-      <c r="B217" s="57"/>
+      <c r="B217" s="56"/>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="2:6" ht="12.5">
-      <c r="B218" s="57"/>
+      <c r="B218" s="56"/>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="2:6" ht="12.5">
-      <c r="B219" s="57"/>
+      <c r="B219" s="56"/>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="2:6" ht="12.5">
-      <c r="B220" s="57"/>
+      <c r="B220" s="56"/>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="2:6" ht="12.5">
-      <c r="B221" s="57"/>
+      <c r="B221" s="56"/>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="2:6" ht="12.5">
-      <c r="B222" s="57"/>
+      <c r="B222" s="56"/>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="2:6" ht="12.5">
-      <c r="B223" s="57"/>
+      <c r="B223" s="56"/>
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="2:6" ht="12.5">
-      <c r="B224" s="57"/>
+      <c r="B224" s="56"/>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="2:6" ht="12.5">
-      <c r="B225" s="57"/>
+      <c r="B225" s="56"/>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="2:6" ht="12.5">
-      <c r="B226" s="57"/>
+      <c r="B226" s="56"/>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="2:6" ht="12.5">
-      <c r="B227" s="57"/>
+      <c r="B227" s="56"/>
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="2:6" ht="12.5">
-      <c r="B228" s="57"/>
+      <c r="B228" s="56"/>
       <c r="F228" s="1"/>
     </row>
     <row r="229" spans="2:6" ht="12.5">
-      <c r="B229" s="57"/>
+      <c r="B229" s="56"/>
       <c r="F229" s="1"/>
     </row>
     <row r="230" spans="2:6" ht="12.5">
-      <c r="B230" s="57"/>
+      <c r="B230" s="56"/>
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="2:6" ht="12.5">
-      <c r="B231" s="57"/>
+      <c r="B231" s="56"/>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="2:6" ht="12.5">
-      <c r="B232" s="57"/>
+      <c r="B232" s="56"/>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="2:6" ht="12.5">
-      <c r="B233" s="57"/>
+      <c r="B233" s="56"/>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="2:6" ht="12.5">
-      <c r="B234" s="57"/>
+      <c r="B234" s="56"/>
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="2:6" ht="12.5">
-      <c r="B235" s="57"/>
+      <c r="B235" s="56"/>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="2:6" ht="12.5">
-      <c r="B236" s="57"/>
+      <c r="B236" s="56"/>
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="2:6" ht="12.5">
-      <c r="B237" s="57"/>
+      <c r="B237" s="56"/>
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="2:6" ht="12.5">
-      <c r="B238" s="57"/>
+      <c r="B238" s="56"/>
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="2:6" ht="12.5">
-      <c r="B239" s="57"/>
+      <c r="B239" s="56"/>
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="2:6" ht="12.5">
-      <c r="B240" s="57"/>
+      <c r="B240" s="56"/>
       <c r="F240" s="1"/>
     </row>
     <row r="241" spans="2:6" ht="12.5">
-      <c r="B241" s="57"/>
+      <c r="B241" s="56"/>
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="2:6" ht="12.5">
-      <c r="B242" s="57"/>
+      <c r="B242" s="56"/>
       <c r="F242" s="1"/>
     </row>
     <row r="243" spans="2:6" ht="12.5">
-      <c r="B243" s="57"/>
+      <c r="B243" s="56"/>
       <c r="F243" s="1"/>
     </row>
     <row r="244" spans="2:6" ht="12.5">
-      <c r="B244" s="57"/>
+      <c r="B244" s="56"/>
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="2:6" ht="12.5">
-      <c r="B245" s="57"/>
+      <c r="B245" s="56"/>
       <c r="F245" s="1"/>
     </row>
     <row r="246" spans="2:6" ht="12.5">
-      <c r="B246" s="57"/>
+      <c r="B246" s="56"/>
       <c r="F246" s="1"/>
     </row>
     <row r="247" spans="2:6" ht="12.5">
-      <c r="B247" s="57"/>
+      <c r="B247" s="56"/>
       <c r="F247" s="1"/>
     </row>
     <row r="248" spans="2:6" ht="12.5">
-      <c r="B248" s="57"/>
+      <c r="B248" s="56"/>
       <c r="F248" s="1"/>
     </row>
     <row r="249" spans="2:6" ht="12.5">
-      <c r="B249" s="57"/>
+      <c r="B249" s="56"/>
       <c r="F249" s="1"/>
     </row>
     <row r="250" spans="2:6" ht="12.5">
-      <c r="B250" s="57"/>
+      <c r="B250" s="56"/>
       <c r="F250" s="1"/>
     </row>
     <row r="251" spans="2:6" ht="12.5">
-      <c r="B251" s="57"/>
+      <c r="B251" s="56"/>
       <c r="F251" s="1"/>
     </row>
     <row r="252" spans="2:6" ht="12.5">
-      <c r="B252" s="57"/>
+      <c r="B252" s="56"/>
       <c r="F252" s="1"/>
     </row>
     <row r="253" spans="2:6" ht="12.5">
-      <c r="B253" s="57"/>
+      <c r="B253" s="56"/>
       <c r="F253" s="1"/>
     </row>
     <row r="254" spans="2:6" ht="12.5">
-      <c r="B254" s="57"/>
+      <c r="B254" s="56"/>
       <c r="F254" s="1"/>
     </row>
     <row r="255" spans="2:6" ht="12.5">
-      <c r="B255" s="57"/>
+      <c r="B255" s="56"/>
       <c r="F255" s="1"/>
     </row>
     <row r="256" spans="2:6" ht="12.5">
-      <c r="B256" s="57"/>
+      <c r="B256" s="56"/>
       <c r="F256" s="1"/>
     </row>
     <row r="257" spans="2:6" ht="12.5">
-      <c r="B257" s="57"/>
+      <c r="B257" s="56"/>
       <c r="F257" s="1"/>
     </row>
     <row r="258" spans="2:6" ht="12.5">
-      <c r="B258" s="57"/>
+      <c r="B258" s="56"/>
       <c r="F258" s="1"/>
     </row>
     <row r="259" spans="2:6" ht="12.5">
-      <c r="B259" s="57"/>
+      <c r="B259" s="56"/>
       <c r="F259" s="1"/>
     </row>
     <row r="260" spans="2:6" ht="12.5">
-      <c r="B260" s="57"/>
+      <c r="B260" s="56"/>
       <c r="F260" s="1"/>
     </row>
     <row r="261" spans="2:6" ht="12.5">
-      <c r="B261" s="57"/>
+      <c r="B261" s="56"/>
       <c r="F261" s="1"/>
     </row>
     <row r="262" spans="2:6" ht="12.5">
-      <c r="B262" s="57"/>
+      <c r="B262" s="56"/>
       <c r="F262" s="1"/>
     </row>
     <row r="263" spans="2:6" ht="12.5">
-      <c r="B263" s="57"/>
+      <c r="B263" s="56"/>
       <c r="F263" s="1"/>
     </row>
     <row r="264" spans="2:6" ht="12.5">
-      <c r="B264" s="57"/>
+      <c r="B264" s="56"/>
       <c r="F264" s="1"/>
     </row>
     <row r="265" spans="2:6" ht="12.5">
-      <c r="B265" s="57"/>
+      <c r="B265" s="56"/>
       <c r="F265" s="1"/>
     </row>
     <row r="266" spans="2:6" ht="12.5">
-      <c r="B266" s="57"/>
+      <c r="B266" s="56"/>
       <c r="F266" s="1"/>
     </row>
     <row r="267" spans="2:6" ht="12.5">
-      <c r="B267" s="57"/>
+      <c r="B267" s="56"/>
       <c r="F267" s="1"/>
     </row>
     <row r="268" spans="2:6" ht="12.5">
-      <c r="B268" s="57"/>
+      <c r="B268" s="56"/>
       <c r="F268" s="1"/>
     </row>
     <row r="269" spans="2:6" ht="12.5">
-      <c r="B269" s="57"/>
+      <c r="B269" s="56"/>
       <c r="F269" s="1"/>
     </row>
     <row r="270" spans="2:6" ht="12.5">
-      <c r="B270" s="57"/>
+      <c r="B270" s="56"/>
       <c r="F270" s="1"/>
     </row>
     <row r="271" spans="2:6" ht="12.5">
-      <c r="B271" s="57"/>
+      <c r="B271" s="56"/>
       <c r="F271" s="1"/>
     </row>
     <row r="272" spans="2:6" ht="12.5">
-      <c r="B272" s="57"/>
+      <c r="B272" s="56"/>
       <c r="F272" s="1"/>
     </row>
     <row r="273" spans="2:6" ht="12.5">
-      <c r="B273" s="57"/>
+      <c r="B273" s="56"/>
       <c r="F273" s="1"/>
     </row>
     <row r="274" spans="2:6" ht="12.5">
-      <c r="B274" s="57"/>
+      <c r="B274" s="56"/>
       <c r="F274" s="1"/>
     </row>
     <row r="275" spans="2:6" ht="12.5">
-      <c r="B275" s="57"/>
+      <c r="B275" s="56"/>
       <c r="F275" s="1"/>
     </row>
     <row r="276" spans="2:6" ht="12.5">
-      <c r="B276" s="57"/>
+      <c r="B276" s="56"/>
       <c r="F276" s="1"/>
     </row>
     <row r="277" spans="2:6" ht="12.5">
-      <c r="B277" s="57"/>
+      <c r="B277" s="56"/>
       <c r="F277" s="1"/>
     </row>
     <row r="278" spans="2:6" ht="12.5">
-      <c r="B278" s="57"/>
+      <c r="B278" s="56"/>
       <c r="F278" s="1"/>
     </row>
     <row r="279" spans="2:6" ht="12.5">
-      <c r="B279" s="57"/>
+      <c r="B279" s="56"/>
       <c r="F279" s="1"/>
     </row>
     <row r="280" spans="2:6" ht="12.5">
-      <c r="B280" s="57"/>
+      <c r="B280" s="56"/>
       <c r="F280" s="1"/>
     </row>
     <row r="281" spans="2:6" ht="12.5">
-      <c r="B281" s="57"/>
+      <c r="B281" s="56"/>
       <c r="F281" s="1"/>
     </row>
     <row r="282" spans="2:6" ht="12.5">
-      <c r="B282" s="57"/>
+      <c r="B282" s="56"/>
       <c r="F282" s="1"/>
     </row>
     <row r="283" spans="2:6" ht="12.5">
-      <c r="B283" s="57"/>
+      <c r="B283" s="56"/>
       <c r="F283" s="1"/>
     </row>
     <row r="284" spans="2:6" ht="12.5">
-      <c r="B284" s="57"/>
+      <c r="B284" s="56"/>
       <c r="F284" s="1"/>
     </row>
     <row r="285" spans="2:6" ht="12.5">
-      <c r="B285" s="57"/>
+      <c r="B285" s="56"/>
       <c r="F285" s="1"/>
     </row>
     <row r="286" spans="2:6" ht="12.5">
-      <c r="B286" s="57"/>
+      <c r="B286" s="56"/>
       <c r="F286" s="1"/>
     </row>
     <row r="287" spans="2:6" ht="12.5">
-      <c r="B287" s="57"/>
+      <c r="B287" s="56"/>
       <c r="F287" s="1"/>
     </row>
     <row r="288" spans="2:6" ht="12.5">
-      <c r="B288" s="57"/>
+      <c r="B288" s="56"/>
       <c r="F288" s="1"/>
     </row>
     <row r="289" spans="2:6" ht="12.5">
-      <c r="B289" s="57"/>
+      <c r="B289" s="56"/>
       <c r="F289" s="1"/>
     </row>
     <row r="290" spans="2:6" ht="12.5">
-      <c r="B290" s="57"/>
+      <c r="B290" s="56"/>
       <c r="F290" s="1"/>
     </row>
     <row r="291" spans="2:6" ht="12.5">
-      <c r="B291" s="57"/>
+      <c r="B291" s="56"/>
       <c r="F291" s="1"/>
     </row>
     <row r="292" spans="2:6" ht="12.5">
-      <c r="B292" s="57"/>
+      <c r="B292" s="56"/>
       <c r="F292" s="1"/>
     </row>
     <row r="293" spans="2:6" ht="12.5">
-      <c r="B293" s="57"/>
+      <c r="B293" s="56"/>
       <c r="F293" s="1"/>
     </row>
     <row r="294" spans="2:6" ht="12.5">
-      <c r="B294" s="57"/>
+      <c r="B294" s="56"/>
       <c r="F294" s="1"/>
     </row>
     <row r="295" spans="2:6" ht="12.5">
-      <c r="B295" s="57"/>
+      <c r="B295" s="56"/>
       <c r="F295" s="1"/>
     </row>
     <row r="296" spans="2:6" ht="12.5">
-      <c r="B296" s="57"/>
+      <c r="B296" s="56"/>
       <c r="F296" s="1"/>
     </row>
     <row r="297" spans="2:6" ht="12.5">
-      <c r="B297" s="57"/>
+      <c r="B297" s="56"/>
       <c r="F297" s="1"/>
     </row>
     <row r="298" spans="2:6" ht="12.5">
-      <c r="B298" s="57"/>
+      <c r="B298" s="56"/>
       <c r="F298" s="1"/>
     </row>
     <row r="299" spans="2:6" ht="12.5">
-      <c r="B299" s="57"/>
+      <c r="B299" s="56"/>
       <c r="F299" s="1"/>
     </row>
     <row r="300" spans="2:6" ht="12.5">
-      <c r="B300" s="57"/>
+      <c r="B300" s="56"/>
       <c r="F300" s="1"/>
     </row>
     <row r="301" spans="2:6" ht="12.5">
-      <c r="B301" s="57"/>
+      <c r="B301" s="56"/>
       <c r="F301" s="1"/>
     </row>
     <row r="302" spans="2:6" ht="12.5">
-      <c r="B302" s="57"/>
+      <c r="B302" s="56"/>
       <c r="F302" s="1"/>
     </row>
     <row r="303" spans="2:6" ht="12.5">
-      <c r="B303" s="57"/>
+      <c r="B303" s="56"/>
       <c r="F303" s="1"/>
     </row>
     <row r="304" spans="2:6" ht="12.5">
-      <c r="B304" s="57"/>
+      <c r="B304" s="56"/>
       <c r="F304" s="1"/>
     </row>
     <row r="305" spans="2:6" ht="12.5">
-      <c r="B305" s="57"/>
+      <c r="B305" s="56"/>
       <c r="F305" s="1"/>
     </row>
     <row r="306" spans="2:6" ht="12.5">
-      <c r="B306" s="57"/>
+      <c r="B306" s="56"/>
       <c r="F306" s="1"/>
     </row>
     <row r="307" spans="2:6" ht="12.5">
-      <c r="B307" s="57"/>
+      <c r="B307" s="56"/>
       <c r="F307" s="1"/>
     </row>
     <row r="308" spans="2:6" ht="12.5">
-      <c r="B308" s="57"/>
+      <c r="B308" s="56"/>
       <c r="F308" s="1"/>
     </row>
     <row r="309" spans="2:6" ht="12.5">
-      <c r="B309" s="57"/>
+      <c r="B309" s="56"/>
       <c r="F309" s="1"/>
     </row>
     <row r="310" spans="2:6" ht="12.5">
-      <c r="B310" s="57"/>
+      <c r="B310" s="56"/>
       <c r="F310" s="1"/>
     </row>
     <row r="311" spans="2:6" ht="12.5">
-      <c r="B311" s="57"/>
+      <c r="B311" s="56"/>
       <c r="F311" s="1"/>
     </row>
     <row r="312" spans="2:6" ht="12.5">
-      <c r="B312" s="57"/>
+      <c r="B312" s="56"/>
       <c r="F312" s="1"/>
     </row>
     <row r="313" spans="2:6" ht="12.5">
-      <c r="B313" s="57"/>
+      <c r="B313" s="56"/>
       <c r="F313" s="1"/>
     </row>
     <row r="314" spans="2:6" ht="12.5">
-      <c r="B314" s="57"/>
+      <c r="B314" s="56"/>
       <c r="F314" s="1"/>
     </row>
     <row r="315" spans="2:6" ht="12.5">
-      <c r="B315" s="57"/>
+      <c r="B315" s="56"/>
       <c r="F315" s="1"/>
     </row>
     <row r="316" spans="2:6" ht="12.5">
-      <c r="B316" s="57"/>
+      <c r="B316" s="56"/>
       <c r="F316" s="1"/>
     </row>
     <row r="317" spans="2:6" ht="12.5">
-      <c r="B317" s="57"/>
+      <c r="B317" s="56"/>
       <c r="F317" s="1"/>
     </row>
     <row r="318" spans="2:6" ht="12.5">
-      <c r="B318" s="57"/>
+      <c r="B318" s="56"/>
       <c r="F318" s="1"/>
     </row>
     <row r="319" spans="2:6" ht="12.5">
-      <c r="B319" s="57"/>
+      <c r="B319" s="56"/>
       <c r="F319" s="1"/>
     </row>
     <row r="320" spans="2:6" ht="12.5">
-      <c r="B320" s="57"/>
+      <c r="B320" s="56"/>
       <c r="F320" s="1"/>
     </row>
     <row r="321" spans="2:6" ht="12.5">
-      <c r="B321" s="57"/>
+      <c r="B321" s="56"/>
       <c r="F321" s="1"/>
     </row>
     <row r="322" spans="2:6" ht="12.5">
-      <c r="B322" s="57"/>
+      <c r="B322" s="56"/>
       <c r="F322" s="1"/>
     </row>
     <row r="323" spans="2:6" ht="12.5">
-      <c r="B323" s="57"/>
+      <c r="B323" s="56"/>
       <c r="F323" s="1"/>
     </row>
     <row r="324" spans="2:6" ht="12.5">
-      <c r="B324" s="57"/>
+      <c r="B324" s="56"/>
       <c r="F324" s="1"/>
     </row>
     <row r="325" spans="2:6" ht="12.5">
-      <c r="B325" s="57"/>
+      <c r="B325" s="56"/>
       <c r="F325" s="1"/>
     </row>
     <row r="326" spans="2:6" ht="12.5">
-      <c r="B326" s="57"/>
+      <c r="B326" s="56"/>
       <c r="F326" s="1"/>
     </row>
     <row r="327" spans="2:6" ht="12.5">
-      <c r="B327" s="57"/>
+      <c r="B327" s="56"/>
       <c r="F327" s="1"/>
     </row>
     <row r="328" spans="2:6" ht="12.5">
-      <c r="B328" s="57"/>
+      <c r="B328" s="56"/>
       <c r="F328" s="1"/>
     </row>
     <row r="329" spans="2:6" ht="12.5">
-      <c r="B329" s="57"/>
+      <c r="B329" s="56"/>
       <c r="F329" s="1"/>
     </row>
     <row r="330" spans="2:6" ht="12.5">
-      <c r="B330" s="57"/>
+      <c r="B330" s="56"/>
       <c r="F330" s="1"/>
     </row>
     <row r="331" spans="2:6" ht="12.5">
-      <c r="B331" s="57"/>
+      <c r="B331" s="56"/>
       <c r="F331" s="1"/>
     </row>
     <row r="332" spans="2:6" ht="12.5">
-      <c r="B332" s="57"/>
+      <c r="B332" s="56"/>
       <c r="F332" s="1"/>
     </row>
     <row r="333" spans="2:6" ht="12.5">
-      <c r="B333" s="57"/>
+      <c r="B333" s="56"/>
       <c r="F333" s="1"/>
     </row>
     <row r="334" spans="2:6" ht="12.5">
-      <c r="B334" s="57"/>
+      <c r="B334" s="56"/>
       <c r="F334" s="1"/>
     </row>
     <row r="335" spans="2:6" ht="12.5">
-      <c r="B335" s="57"/>
+      <c r="B335" s="56"/>
       <c r="F335" s="1"/>
     </row>
     <row r="336" spans="2:6" ht="12.5">
-      <c r="B336" s="57"/>
+      <c r="B336" s="56"/>
       <c r="F336" s="1"/>
     </row>
     <row r="337" spans="2:6" ht="12.5">
-      <c r="B337" s="57"/>
+      <c r="B337" s="56"/>
       <c r="F337" s="1"/>
     </row>
     <row r="338" spans="2:6" ht="12.5">
-      <c r="B338" s="57"/>
+      <c r="B338" s="56"/>
       <c r="F338" s="1"/>
     </row>
     <row r="339" spans="2:6" ht="12.5">
-      <c r="B339" s="57"/>
+      <c r="B339" s="56"/>
       <c r="F339" s="1"/>
     </row>
     <row r="340" spans="2:6" ht="12.5">
-      <c r="B340" s="57"/>
+      <c r="B340" s="56"/>
       <c r="F340" s="1"/>
     </row>
     <row r="341" spans="2:6" ht="12.5">
-      <c r="B341" s="57"/>
+      <c r="B341" s="56"/>
       <c r="F341" s="1"/>
     </row>
     <row r="342" spans="2:6" ht="12.5">
-      <c r="B342" s="57"/>
+      <c r="B342" s="56"/>
       <c r="F342" s="1"/>
     </row>
     <row r="343" spans="2:6" ht="12.5">
-      <c r="B343" s="57"/>
+      <c r="B343" s="56"/>
       <c r="F343" s="1"/>
     </row>
     <row r="344" spans="2:6" ht="12.5">
-      <c r="B344" s="57"/>
+      <c r="B344" s="56"/>
       <c r="F344" s="1"/>
     </row>
     <row r="345" spans="2:6" ht="12.5">
-      <c r="B345" s="57"/>
+      <c r="B345" s="56"/>
       <c r="F345" s="1"/>
     </row>
     <row r="346" spans="2:6" ht="12.5">
-      <c r="B346" s="57"/>
+      <c r="B346" s="56"/>
       <c r="F346" s="1"/>
     </row>
     <row r="347" spans="2:6" ht="12.5">
-      <c r="B347" s="57"/>
+      <c r="B347" s="56"/>
       <c r="F347" s="1"/>
     </row>
     <row r="348" spans="2:6" ht="12.5">
-      <c r="B348" s="57"/>
+      <c r="B348" s="56"/>
       <c r="F348" s="1"/>
     </row>
     <row r="349" spans="2:6" ht="12.5">
-      <c r="B349" s="57"/>
+      <c r="B349" s="56"/>
       <c r="F349" s="1"/>
     </row>
     <row r="350" spans="2:6" ht="12.5">
-      <c r="B350" s="57"/>
+      <c r="B350" s="56"/>
       <c r="F350" s="1"/>
     </row>
     <row r="351" spans="2:6" ht="12.5">
-      <c r="B351" s="57"/>
+      <c r="B351" s="56"/>
       <c r="F351" s="1"/>
     </row>
     <row r="352" spans="2:6" ht="12.5">
-      <c r="B352" s="57"/>
+      <c r="B352" s="56"/>
       <c r="F352" s="1"/>
     </row>
     <row r="353" spans="2:6" ht="12.5">
-      <c r="B353" s="57"/>
+      <c r="B353" s="56"/>
       <c r="F353" s="1"/>
     </row>
     <row r="354" spans="2:6" ht="12.5">
-      <c r="B354" s="57"/>
+      <c r="B354" s="56"/>
       <c r="F354" s="1"/>
     </row>
     <row r="355" spans="2:6" ht="12.5">
-      <c r="B355" s="57"/>
+      <c r="B355" s="56"/>
       <c r="F355" s="1"/>
     </row>
     <row r="356" spans="2:6" ht="12.5">
-      <c r="B356" s="57"/>
+      <c r="B356" s="56"/>
       <c r="F356" s="1"/>
     </row>
     <row r="357" spans="2:6" ht="12.5">
-      <c r="B357" s="57"/>
+      <c r="B357" s="56"/>
       <c r="F357" s="1"/>
     </row>
     <row r="358" spans="2:6" ht="12.5">
-      <c r="B358" s="57"/>
+      <c r="B358" s="56"/>
       <c r="F358" s="1"/>
     </row>
     <row r="359" spans="2:6" ht="12.5">
-      <c r="B359" s="57"/>
+      <c r="B359" s="56"/>
       <c r="F359" s="1"/>
     </row>
     <row r="360" spans="2:6" ht="12.5">
-      <c r="B360" s="57"/>
+      <c r="B360" s="56"/>
       <c r="F360" s="1"/>
     </row>
     <row r="361" spans="2:6" ht="12.5">
-      <c r="B361" s="57"/>
+      <c r="B361" s="56"/>
       <c r="F361" s="1"/>
     </row>
     <row r="362" spans="2:6" ht="12.5">
-      <c r="B362" s="57"/>
+      <c r="B362" s="56"/>
       <c r="F362" s="1"/>
     </row>
     <row r="363" spans="2:6" ht="12.5">
-      <c r="B363" s="57"/>
+      <c r="B363" s="56"/>
       <c r="F363" s="1"/>
     </row>
     <row r="364" spans="2:6" ht="12.5">
-      <c r="B364" s="57"/>
+      <c r="B364" s="56"/>
       <c r="F364" s="1"/>
     </row>
     <row r="365" spans="2:6" ht="12.5">
-      <c r="B365" s="57"/>
+      <c r="B365" s="56"/>
       <c r="F365" s="1"/>
     </row>
     <row r="366" spans="2:6" ht="12.5">
-      <c r="B366" s="57"/>
+      <c r="B366" s="56"/>
       <c r="F366" s="1"/>
     </row>
     <row r="367" spans="2:6" ht="12.5">
-      <c r="B367" s="57"/>
+      <c r="B367" s="56"/>
       <c r="F367" s="1"/>
     </row>
     <row r="368" spans="2:6" ht="12.5">
-      <c r="B368" s="57"/>
+      <c r="B368" s="56"/>
       <c r="F368" s="1"/>
     </row>
     <row r="369" spans="2:6" ht="12.5">
-      <c r="B369" s="57"/>
+      <c r="B369" s="56"/>
       <c r="F369" s="1"/>
     </row>
     <row r="370" spans="2:6" ht="12.5">
-      <c r="B370" s="57"/>
+      <c r="B370" s="56"/>
       <c r="F370" s="1"/>
     </row>
     <row r="371" spans="2:6" ht="12.5">
-      <c r="B371" s="57"/>
+      <c r="B371" s="56"/>
       <c r="F371" s="1"/>
     </row>
     <row r="372" spans="2:6" ht="12.5">
-      <c r="B372" s="57"/>
+      <c r="B372" s="56"/>
       <c r="F372" s="1"/>
     </row>
     <row r="373" spans="2:6" ht="12.5">
-      <c r="B373" s="57"/>
+      <c r="B373" s="56"/>
       <c r="F373" s="1"/>
     </row>
     <row r="374" spans="2:6" ht="12.5">
-      <c r="B374" s="57"/>
+      <c r="B374" s="56"/>
       <c r="F374" s="1"/>
     </row>
     <row r="375" spans="2:6" ht="12.5">
-      <c r="B375" s="57"/>
+      <c r="B375" s="56"/>
       <c r="F375" s="1"/>
     </row>
     <row r="376" spans="2:6" ht="12.5">
-      <c r="B376" s="57"/>
+      <c r="B376" s="56"/>
       <c r="F376" s="1"/>
     </row>
     <row r="377" spans="2:6" ht="12.5">
-      <c r="B377" s="57"/>
+      <c r="B377" s="56"/>
       <c r="F377" s="1"/>
     </row>
     <row r="378" spans="2:6" ht="12.5">
-      <c r="B378" s="57"/>
+      <c r="B378" s="56"/>
       <c r="F378" s="1"/>
     </row>
     <row r="379" spans="2:6" ht="12.5">
-      <c r="B379" s="57"/>
+      <c r="B379" s="56"/>
       <c r="F379" s="1"/>
     </row>
     <row r="380" spans="2:6" ht="12.5">
-      <c r="B380" s="57"/>
+      <c r="B380" s="56"/>
       <c r="F380" s="1"/>
     </row>
     <row r="381" spans="2:6" ht="12.5">
-      <c r="B381" s="57"/>
+      <c r="B381" s="56"/>
       <c r="F381" s="1"/>
     </row>
     <row r="382" spans="2:6" ht="12.5">
-      <c r="B382" s="57"/>
+      <c r="B382" s="56"/>
       <c r="F382" s="1"/>
     </row>
     <row r="383" spans="2:6" ht="12.5">
-      <c r="B383" s="57"/>
+      <c r="B383" s="56"/>
       <c r="F383" s="1"/>
     </row>
     <row r="384" spans="2:6" ht="12.5">
-      <c r="B384" s="57"/>
+      <c r="B384" s="56"/>
       <c r="F384" s="1"/>
     </row>
     <row r="385" spans="2:6" ht="12.5">
-      <c r="B385" s="57"/>
+      <c r="B385" s="56"/>
       <c r="F385" s="1"/>
     </row>
     <row r="386" spans="2:6" ht="12.5">
-      <c r="B386" s="57"/>
+      <c r="B386" s="56"/>
       <c r="F386" s="1"/>
     </row>
     <row r="387" spans="2:6" ht="12.5">
-      <c r="B387" s="57"/>
+      <c r="B387" s="56"/>
       <c r="F387" s="1"/>
     </row>
     <row r="388" spans="2:6" ht="12.5">
-      <c r="B388" s="57"/>
+      <c r="B388" s="56"/>
       <c r="F388" s="1"/>
     </row>
     <row r="389" spans="2:6" ht="12.5">
-      <c r="B389" s="57"/>
+      <c r="B389" s="56"/>
       <c r="F389" s="1"/>
     </row>
     <row r="390" spans="2:6" ht="12.5">
-      <c r="B390" s="57"/>
+      <c r="B390" s="56"/>
       <c r="F390" s="1"/>
     </row>
     <row r="391" spans="2:6" ht="12.5">
-      <c r="B391" s="57"/>
+      <c r="B391" s="56"/>
       <c r="F391" s="1"/>
     </row>
     <row r="392" spans="2:6" ht="12.5">
-      <c r="B392" s="57"/>
+      <c r="B392" s="56"/>
       <c r="F392" s="1"/>
     </row>
     <row r="393" spans="2:6" ht="12.5">
-      <c r="B393" s="57"/>
+      <c r="B393" s="56"/>
       <c r="F393" s="1"/>
     </row>
     <row r="394" spans="2:6" ht="12.5">
-      <c r="B394" s="57"/>
+      <c r="B394" s="56"/>
       <c r="F394" s="1"/>
     </row>
     <row r="395" spans="2:6" ht="12.5">
-      <c r="B395" s="57"/>
+      <c r="B395" s="56"/>
       <c r="F395" s="1"/>
     </row>
     <row r="396" spans="2:6" ht="12.5">
-      <c r="B396" s="57"/>
+      <c r="B396" s="56"/>
       <c r="F396" s="1"/>
     </row>
     <row r="397" spans="2:6" ht="12.5">
-      <c r="B397" s="57"/>
+      <c r="B397" s="56"/>
       <c r="F397" s="1"/>
     </row>
     <row r="398" spans="2:6" ht="12.5">
-      <c r="B398" s="57"/>
+      <c r="B398" s="56"/>
       <c r="F398" s="1"/>
     </row>
     <row r="399" spans="2:6" ht="12.5">
-      <c r="B399" s="57"/>
+      <c r="B399" s="56"/>
       <c r="F399" s="1"/>
     </row>
     <row r="400" spans="2:6" ht="12.5">
-      <c r="B400" s="57"/>
+      <c r="B400" s="56"/>
       <c r="F400" s="1"/>
     </row>
     <row r="401" spans="2:6" ht="12.5">
-      <c r="B401" s="57"/>
+      <c r="B401" s="56"/>
       <c r="F401" s="1"/>
     </row>
     <row r="402" spans="2:6" ht="12.5">
-      <c r="B402" s="57"/>
+      <c r="B402" s="56"/>
       <c r="F402" s="1"/>
     </row>
     <row r="403" spans="2:6" ht="12.5">
-      <c r="B403" s="57"/>
+      <c r="B403" s="56"/>
       <c r="F403" s="1"/>
     </row>
     <row r="404" spans="2:6" ht="12.5">
-      <c r="B404" s="57"/>
+      <c r="B404" s="56"/>
       <c r="F404" s="1"/>
     </row>
     <row r="405" spans="2:6" ht="12.5">
-      <c r="B405" s="57"/>
+      <c r="B405" s="56"/>
       <c r="F405" s="1"/>
     </row>
     <row r="406" spans="2:6" ht="12.5">
-      <c r="B406" s="57"/>
+      <c r="B406" s="56"/>
       <c r="F406" s="1"/>
     </row>
     <row r="407" spans="2:6" ht="12.5">
-      <c r="B407" s="57"/>
+      <c r="B407" s="56"/>
       <c r="F407" s="1"/>
     </row>
     <row r="408" spans="2:6" ht="12.5">
-      <c r="B408" s="57"/>
+      <c r="B408" s="56"/>
       <c r="F408" s="1"/>
     </row>
     <row r="409" spans="2:6" ht="12.5">
-      <c r="B409" s="57"/>
+      <c r="B409" s="56"/>
       <c r="F409" s="1"/>
     </row>
     <row r="410" spans="2:6" ht="12.5">
-      <c r="B410" s="57"/>
+      <c r="B410" s="56"/>
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="2:6" ht="12.5">
-      <c r="B411" s="57"/>
+      <c r="B411" s="56"/>
       <c r="F411" s="1"/>
     </row>
     <row r="412" spans="2:6" ht="12.5">
-      <c r="B412" s="57"/>
+      <c r="B412" s="56"/>
       <c r="F412" s="1"/>
     </row>
     <row r="413" spans="2:6" ht="12.5">
-      <c r="B413" s="57"/>
+      <c r="B413" s="56"/>
       <c r="F413" s="1"/>
     </row>
     <row r="414" spans="2:6" ht="12.5">
-      <c r="B414" s="57"/>
+      <c r="B414" s="56"/>
       <c r="F414" s="1"/>
     </row>
     <row r="415" spans="2:6" ht="12.5">
-      <c r="B415" s="57"/>
+      <c r="B415" s="56"/>
       <c r="F415" s="1"/>
     </row>
     <row r="416" spans="2:6" ht="12.5">
-      <c r="B416" s="57"/>
+      <c r="B416" s="56"/>
       <c r="F416" s="1"/>
     </row>
     <row r="417" spans="2:6" ht="12.5">
-      <c r="B417" s="57"/>
+      <c r="B417" s="56"/>
       <c r="F417" s="1"/>
     </row>
     <row r="418" spans="2:6" ht="12.5">
-      <c r="B418" s="57"/>
+      <c r="B418" s="56"/>
       <c r="F418" s="1"/>
     </row>
     <row r="419" spans="2:6" ht="12.5">
-      <c r="B419" s="57"/>
+      <c r="B419" s="56"/>
       <c r="F419" s="1"/>
     </row>
     <row r="420" spans="2:6" ht="12.5">
-      <c r="B420" s="57"/>
+      <c r="B420" s="56"/>
       <c r="F420" s="1"/>
     </row>
     <row r="421" spans="2:6" ht="12.5">
-      <c r="B421" s="57"/>
+      <c r="B421" s="56"/>
       <c r="F421" s="1"/>
     </row>
     <row r="422" spans="2:6" ht="12.5">
-      <c r="B422" s="57"/>
+      <c r="B422" s="56"/>
       <c r="F422" s="1"/>
     </row>
     <row r="423" spans="2:6" ht="12.5">
-      <c r="B423" s="57"/>
+      <c r="B423" s="56"/>
       <c r="F423" s="1"/>
     </row>
     <row r="424" spans="2:6" ht="12.5">
-      <c r="B424" s="57"/>
+      <c r="B424" s="56"/>
       <c r="F424" s="1"/>
     </row>
     <row r="425" spans="2:6" ht="12.5">
-      <c r="B425" s="57"/>
+      <c r="B425" s="56"/>
       <c r="F425" s="1"/>
     </row>
     <row r="426" spans="2:6" ht="12.5">
-      <c r="B426" s="57"/>
+      <c r="B426" s="56"/>
       <c r="F426" s="1"/>
     </row>
     <row r="427" spans="2:6" ht="12.5">
-      <c r="B427" s="57"/>
+      <c r="B427" s="56"/>
       <c r="F427" s="1"/>
     </row>
     <row r="428" spans="2:6" ht="12.5">
-      <c r="B428" s="57"/>
+      <c r="B428" s="56"/>
       <c r="F428" s="1"/>
     </row>
     <row r="429" spans="2:6" ht="12.5">
-      <c r="B429" s="57"/>
+      <c r="B429" s="56"/>
       <c r="F429" s="1"/>
     </row>
     <row r="430" spans="2:6" ht="12.5">
-      <c r="B430" s="57"/>
+      <c r="B430" s="56"/>
       <c r="F430" s="1"/>
     </row>
     <row r="431" spans="2:6" ht="12.5">
-      <c r="B431" s="57"/>
+      <c r="B431" s="56"/>
       <c r="F431" s="1"/>
     </row>
     <row r="432" spans="2:6" ht="12.5">
-      <c r="B432" s="57"/>
+      <c r="B432" s="56"/>
       <c r="F432" s="1"/>
     </row>
     <row r="433" spans="2:6" ht="12.5">
-      <c r="B433" s="57"/>
+      <c r="B433" s="56"/>
       <c r="F433" s="1"/>
     </row>
     <row r="434" spans="2:6" ht="12.5">
-      <c r="B434" s="57"/>
+      <c r="B434" s="56"/>
       <c r="F434" s="1"/>
     </row>
     <row r="435" spans="2:6" ht="12.5">
-      <c r="B435" s="57"/>
+      <c r="B435" s="56"/>
       <c r="F435" s="1"/>
     </row>
     <row r="436" spans="2:6" ht="12.5">
-      <c r="B436" s="57"/>
+      <c r="B436" s="56"/>
       <c r="F436" s="1"/>
     </row>
     <row r="437" spans="2:6" ht="12.5">
-      <c r="B437" s="57"/>
+      <c r="B437" s="56"/>
       <c r="F437" s="1"/>
     </row>
     <row r="438" spans="2:6" ht="12.5">
-      <c r="B438" s="57"/>
+      <c r="B438" s="56"/>
       <c r="F438" s="1"/>
     </row>
     <row r="439" spans="2:6" ht="12.5">
-      <c r="B439" s="57"/>
+      <c r="B439" s="56"/>
       <c r="F439" s="1"/>
     </row>
     <row r="440" spans="2:6" ht="12.5">
-      <c r="B440" s="57"/>
+      <c r="B440" s="56"/>
       <c r="F440" s="1"/>
     </row>
     <row r="441" spans="2:6" ht="12.5">
-      <c r="B441" s="57"/>
+      <c r="B441" s="56"/>
       <c r="F441" s="1"/>
     </row>
     <row r="442" spans="2:6" ht="12.5">
-      <c r="B442" s="57"/>
+      <c r="B442" s="56"/>
       <c r="F442" s="1"/>
     </row>
     <row r="443" spans="2:6" ht="12.5">
-      <c r="B443" s="57"/>
+      <c r="B443" s="56"/>
       <c r="F443" s="1"/>
     </row>
     <row r="444" spans="2:6" ht="12.5">
-      <c r="B444" s="57"/>
+      <c r="B444" s="56"/>
       <c r="F444" s="1"/>
     </row>
     <row r="445" spans="2:6" ht="12.5">
-      <c r="B445" s="57"/>
+      <c r="B445" s="56"/>
       <c r="F445" s="1"/>
     </row>
     <row r="446" spans="2:6" ht="12.5">
-      <c r="B446" s="57"/>
+      <c r="B446" s="56"/>
       <c r="F446" s="1"/>
     </row>
     <row r="447" spans="2:6" ht="12.5">
-      <c r="B447" s="57"/>
+      <c r="B447" s="56"/>
       <c r="F447" s="1"/>
     </row>
     <row r="448" spans="2:6" ht="12.5">
-      <c r="B448" s="57"/>
+      <c r="B448" s="56"/>
       <c r="F448" s="1"/>
     </row>
     <row r="449" spans="2:6" ht="12.5">
-      <c r="B449" s="57"/>
+      <c r="B449" s="56"/>
       <c r="F449" s="1"/>
     </row>
     <row r="450" spans="2:6" ht="12.5">
-      <c r="B450" s="57"/>
+      <c r="B450" s="56"/>
       <c r="F450" s="1"/>
     </row>
     <row r="451" spans="2:6" ht="12.5">
-      <c r="B451" s="57"/>
+      <c r="B451" s="56"/>
       <c r="F451" s="1"/>
     </row>
     <row r="452" spans="2:6" ht="12.5">
-      <c r="B452" s="57"/>
+      <c r="B452" s="56"/>
       <c r="F452" s="1"/>
     </row>
     <row r="453" spans="2:6" ht="12.5">
-      <c r="B453" s="57"/>
+      <c r="B453" s="56"/>
       <c r="F453" s="1"/>
     </row>
     <row r="454" spans="2:6" ht="12.5">
-      <c r="B454" s="57"/>
+      <c r="B454" s="56"/>
       <c r="F454" s="1"/>
     </row>
     <row r="455" spans="2:6" ht="12.5">
-      <c r="B455" s="57"/>
+      <c r="B455" s="56"/>
       <c r="F455" s="1"/>
     </row>
     <row r="456" spans="2:6" ht="12.5">
-      <c r="B456" s="57"/>
+      <c r="B456" s="56"/>
       <c r="F456" s="1"/>
     </row>
     <row r="457" spans="2:6" ht="12.5">
-      <c r="B457" s="57"/>
+      <c r="B457" s="56"/>
       <c r="F457" s="1"/>
     </row>
     <row r="458" spans="2:6" ht="12.5">
-      <c r="B458" s="57"/>
+      <c r="B458" s="56"/>
       <c r="F458" s="1"/>
     </row>
     <row r="459" spans="2:6" ht="12.5">
-      <c r="B459" s="57"/>
+      <c r="B459" s="56"/>
       <c r="F459" s="1"/>
     </row>
     <row r="460" spans="2:6" ht="12.5">
-      <c r="B460" s="57"/>
+      <c r="B460" s="56"/>
       <c r="F460" s="1"/>
     </row>
     <row r="461" spans="2:6" ht="12.5">
-      <c r="B461" s="57"/>
+      <c r="B461" s="56"/>
       <c r="F461" s="1"/>
     </row>
     <row r="462" spans="2:6" ht="12.5">
-      <c r="B462" s="57"/>
+      <c r="B462" s="56"/>
       <c r="F462" s="1"/>
     </row>
     <row r="463" spans="2:6" ht="12.5">
-      <c r="B463" s="57"/>
+      <c r="B463" s="56"/>
       <c r="F463" s="1"/>
     </row>
     <row r="464" spans="2:6" ht="12.5">
-      <c r="B464" s="57"/>
+      <c r="B464" s="56"/>
       <c r="F464" s="1"/>
     </row>
     <row r="465" spans="2:6" ht="12.5">
-      <c r="B465" s="57"/>
+      <c r="B465" s="56"/>
       <c r="F465" s="1"/>
     </row>
     <row r="466" spans="2:6" ht="12.5">
-      <c r="B466" s="57"/>
+      <c r="B466" s="56"/>
       <c r="F466" s="1"/>
     </row>
     <row r="467" spans="2:6" ht="12.5">
-      <c r="B467" s="57"/>
+      <c r="B467" s="56"/>
       <c r="F467" s="1"/>
     </row>
     <row r="468" spans="2:6" ht="12.5">
-      <c r="B468" s="57"/>
+      <c r="B468" s="56"/>
       <c r="F468" s="1"/>
     </row>
     <row r="469" spans="2:6" ht="12.5">
-      <c r="B469" s="57"/>
+      <c r="B469" s="56"/>
       <c r="F469" s="1"/>
     </row>
     <row r="470" spans="2:6" ht="12.5">
-      <c r="B470" s="57"/>
+      <c r="B470" s="56"/>
       <c r="F470" s="1"/>
     </row>
     <row r="471" spans="2:6" ht="12.5">
-      <c r="B471" s="57"/>
+      <c r="B471" s="56"/>
       <c r="F471" s="1"/>
     </row>
     <row r="472" spans="2:6" ht="12.5">
-      <c r="B472" s="57"/>
+      <c r="B472" s="56"/>
       <c r="F472" s="1"/>
     </row>
     <row r="473" spans="2:6" ht="12.5">
-      <c r="B473" s="57"/>
+      <c r="B473" s="56"/>
       <c r="F473" s="1"/>
     </row>
     <row r="474" spans="2:6" ht="12.5">
-      <c r="B474" s="57"/>
+      <c r="B474" s="56"/>
       <c r="F474" s="1"/>
     </row>
     <row r="475" spans="2:6" ht="12.5">
-      <c r="B475" s="57"/>
+      <c r="B475" s="56"/>
       <c r="F475" s="1"/>
     </row>
     <row r="476" spans="2:6" ht="12.5">
-      <c r="B476" s="57"/>
+      <c r="B476" s="56"/>
       <c r="F476" s="1"/>
     </row>
     <row r="477" spans="2:6" ht="12.5">
-      <c r="B477" s="57"/>
+      <c r="B477" s="56"/>
       <c r="F477" s="1"/>
     </row>
     <row r="478" spans="2:6" ht="12.5">
-      <c r="B478" s="57"/>
+      <c r="B478" s="56"/>
       <c r="F478" s="1"/>
     </row>
     <row r="479" spans="2:6" ht="12.5">
-      <c r="B479" s="57"/>
+      <c r="B479" s="56"/>
       <c r="F479" s="1"/>
     </row>
     <row r="480" spans="2:6" ht="12.5">
-      <c r="B480" s="57"/>
+      <c r="B480" s="56"/>
       <c r="F480" s="1"/>
     </row>
     <row r="481" spans="2:6" ht="12.5">
-      <c r="B481" s="57"/>
+      <c r="B481" s="56"/>
       <c r="F481" s="1"/>
     </row>
     <row r="482" spans="2:6" ht="12.5">
-      <c r="B482" s="57"/>
+      <c r="B482" s="56"/>
       <c r="F482" s="1"/>
     </row>
     <row r="483" spans="2:6" ht="12.5">
-      <c r="B483" s="57"/>
+      <c r="B483" s="56"/>
       <c r="F483" s="1"/>
     </row>
     <row r="484" spans="2:6" ht="12.5">
-      <c r="B484" s="57"/>
+      <c r="B484" s="56"/>
       <c r="F484" s="1"/>
     </row>
     <row r="485" spans="2:6" ht="12.5">
-      <c r="B485" s="57"/>
+      <c r="B485" s="56"/>
       <c r="F485" s="1"/>
     </row>
     <row r="486" spans="2:6" ht="12.5">
-      <c r="B486" s="57"/>
+      <c r="B486" s="56"/>
       <c r="F486" s="1"/>
     </row>
     <row r="487" spans="2:6" ht="12.5">
-      <c r="B487" s="57"/>
+      <c r="B487" s="56"/>
       <c r="F487" s="1"/>
     </row>
     <row r="488" spans="2:6" ht="12.5">
-      <c r="B488" s="57"/>
+      <c r="B488" s="56"/>
       <c r="F488" s="1"/>
     </row>
     <row r="489" spans="2:6" ht="12.5">
-      <c r="B489" s="57"/>
+      <c r="B489" s="56"/>
       <c r="F489" s="1"/>
     </row>
     <row r="490" spans="2:6" ht="12.5">
-      <c r="B490" s="57"/>
+      <c r="B490" s="56"/>
       <c r="F490" s="1"/>
     </row>
     <row r="491" spans="2:6" ht="12.5">
-      <c r="B491" s="57"/>
+      <c r="B491" s="56"/>
       <c r="F491" s="1"/>
     </row>
     <row r="492" spans="2:6" ht="12.5">
-      <c r="B492" s="57"/>
+      <c r="B492" s="56"/>
       <c r="F492" s="1"/>
     </row>
     <row r="493" spans="2:6" ht="12.5">
-      <c r="B493" s="57"/>
+      <c r="B493" s="56"/>
       <c r="F493" s="1"/>
     </row>
     <row r="494" spans="2:6" ht="12.5">
-      <c r="B494" s="57"/>
+      <c r="B494" s="56"/>
       <c r="F494" s="1"/>
     </row>
     <row r="495" spans="2:6" ht="12.5">
-      <c r="B495" s="57"/>
+      <c r="B495" s="56"/>
       <c r="F495" s="1"/>
     </row>
     <row r="496" spans="2:6" ht="12.5">
-      <c r="B496" s="57"/>
+      <c r="B496" s="56"/>
       <c r="F496" s="1"/>
     </row>
     <row r="497" spans="2:6" ht="12.5">
-      <c r="B497" s="57"/>
+      <c r="B497" s="56"/>
       <c r="F497" s="1"/>
     </row>
     <row r="498" spans="2:6" ht="12.5">
-      <c r="B498" s="57"/>
+      <c r="B498" s="56"/>
       <c r="F498" s="1"/>
     </row>
     <row r="499" spans="2:6" ht="12.5">
-      <c r="B499" s="57"/>
+      <c r="B499" s="56"/>
       <c r="F499" s="1"/>
     </row>
     <row r="500" spans="2:6" ht="12.5">
-      <c r="B500" s="57"/>
+      <c r="B500" s="56"/>
       <c r="F500" s="1"/>
     </row>
     <row r="501" spans="2:6" ht="12.5">
-      <c r="B501" s="57"/>
+      <c r="B501" s="56"/>
       <c r="F501" s="1"/>
     </row>
     <row r="502" spans="2:6" ht="12.5">
-      <c r="B502" s="57"/>
+      <c r="B502" s="56"/>
       <c r="F502" s="1"/>
     </row>
     <row r="503" spans="2:6" ht="12.5">
-      <c r="B503" s="57"/>
+      <c r="B503" s="56"/>
       <c r="F503" s="1"/>
     </row>
     <row r="504" spans="2:6" ht="12.5">
-      <c r="B504" s="57"/>
+      <c r="B504" s="56"/>
       <c r="F504" s="1"/>
     </row>
     <row r="505" spans="2:6" ht="12.5">
-      <c r="B505" s="57"/>
+      <c r="B505" s="56"/>
       <c r="F505" s="1"/>
     </row>
     <row r="506" spans="2:6" ht="12.5">
-      <c r="B506" s="57"/>
+      <c r="B506" s="56"/>
       <c r="F506" s="1"/>
     </row>
     <row r="507" spans="2:6" ht="12.5">
-      <c r="B507" s="57"/>
+      <c r="B507" s="56"/>
       <c r="F507" s="1"/>
     </row>
     <row r="508" spans="2:6" ht="12.5">
-      <c r="B508" s="57"/>
+      <c r="B508" s="56"/>
       <c r="F508" s="1"/>
     </row>
     <row r="509" spans="2:6" ht="12.5">
-      <c r="B509" s="57"/>
+      <c r="B509" s="56"/>
       <c r="F509" s="1"/>
     </row>
     <row r="510" spans="2:6" ht="12.5">
-      <c r="B510" s="57"/>
+      <c r="B510" s="56"/>
       <c r="F510" s="1"/>
     </row>
     <row r="511" spans="2:6" ht="12.5">
-      <c r="B511" s="57"/>
+      <c r="B511" s="56"/>
       <c r="F511" s="1"/>
     </row>
     <row r="512" spans="2:6" ht="12.5">
-      <c r="B512" s="57"/>
+      <c r="B512" s="56"/>
       <c r="F512" s="1"/>
     </row>
     <row r="513" spans="2:6" ht="12.5">
-      <c r="B513" s="57"/>
+      <c r="B513" s="56"/>
       <c r="F513" s="1"/>
     </row>
     <row r="514" spans="2:6" ht="12.5">
-      <c r="B514" s="57"/>
+      <c r="B514" s="56"/>
       <c r="F514" s="1"/>
     </row>
     <row r="515" spans="2:6" ht="12.5">
-      <c r="B515" s="57"/>
+      <c r="B515" s="56"/>
       <c r="F515" s="1"/>
     </row>
     <row r="516" spans="2:6" ht="12.5">
-      <c r="B516" s="57"/>
+      <c r="B516" s="56"/>
       <c r="F516" s="1"/>
     </row>
     <row r="517" spans="2:6" ht="12.5">
-      <c r="B517" s="57"/>
+      <c r="B517" s="56"/>
       <c r="F517" s="1"/>
     </row>
     <row r="518" spans="2:6" ht="12.5">
-      <c r="B518" s="57"/>
+      <c r="B518" s="56"/>
       <c r="F518" s="1"/>
     </row>
     <row r="519" spans="2:6" ht="12.5">
-      <c r="B519" s="57"/>
+      <c r="B519" s="56"/>
       <c r="F519" s="1"/>
     </row>
     <row r="520" spans="2:6" ht="12.5">
-      <c r="B520" s="57"/>
+      <c r="B520" s="56"/>
       <c r="F520" s="1"/>
     </row>
     <row r="521" spans="2:6" ht="12.5">
-      <c r="B521" s="57"/>
+      <c r="B521" s="56"/>
       <c r="F521" s="1"/>
     </row>
     <row r="522" spans="2:6" ht="12.5">
-      <c r="B522" s="57"/>
+      <c r="B522" s="56"/>
       <c r="F522" s="1"/>
     </row>
     <row r="523" spans="2:6" ht="12.5">
-      <c r="B523" s="57"/>
+      <c r="B523" s="56"/>
       <c r="F523" s="1"/>
     </row>
     <row r="524" spans="2:6" ht="12.5">
-      <c r="B524" s="57"/>
+      <c r="B524" s="56"/>
       <c r="F524" s="1"/>
     </row>
     <row r="525" spans="2:6" ht="12.5">
-      <c r="B525" s="57"/>
+      <c r="B525" s="56"/>
       <c r="F525" s="1"/>
     </row>
     <row r="526" spans="2:6" ht="12.5">
-      <c r="B526" s="57"/>
+      <c r="B526" s="56"/>
       <c r="F526" s="1"/>
     </row>
     <row r="527" spans="2:6" ht="12.5">
-      <c r="B527" s="57"/>
+      <c r="B527" s="56"/>
       <c r="F527" s="1"/>
     </row>
     <row r="528" spans="2:6" ht="12.5">
-      <c r="B528" s="57"/>
+      <c r="B528" s="56"/>
       <c r="F528" s="1"/>
     </row>
     <row r="529" spans="2:6" ht="12.5">
-      <c r="B529" s="57"/>
+      <c r="B529" s="56"/>
       <c r="F529" s="1"/>
     </row>
     <row r="530" spans="2:6" ht="12.5">
-      <c r="B530" s="57"/>
+      <c r="B530" s="56"/>
       <c r="F530" s="1"/>
     </row>
     <row r="531" spans="2:6" ht="12.5">
-      <c r="B531" s="57"/>
+      <c r="B531" s="56"/>
       <c r="F531" s="1"/>
     </row>
     <row r="532" spans="2:6" ht="12.5">
-      <c r="B532" s="57"/>
+      <c r="B532" s="56"/>
       <c r="F532" s="1"/>
     </row>
     <row r="533" spans="2:6" ht="12.5">
-      <c r="B533" s="57"/>
+      <c r="B533" s="56"/>
       <c r="F533" s="1"/>
     </row>
     <row r="534" spans="2:6" ht="12.5">
-      <c r="B534" s="57"/>
+      <c r="B534" s="56"/>
       <c r="F534" s="1"/>
     </row>
     <row r="535" spans="2:6" ht="12.5">
-      <c r="B535" s="57"/>
+      <c r="B535" s="56"/>
       <c r="F535" s="1"/>
     </row>
     <row r="536" spans="2:6" ht="12.5">
-      <c r="B536" s="57"/>
+      <c r="B536" s="56"/>
       <c r="F536" s="1"/>
     </row>
     <row r="537" spans="2:6" ht="12.5">
-      <c r="B537" s="57"/>
+      <c r="B537" s="56"/>
       <c r="F537" s="1"/>
     </row>
     <row r="538" spans="2:6" ht="12.5">
-      <c r="B538" s="57"/>
+      <c r="B538" s="56"/>
       <c r="F538" s="1"/>
     </row>
     <row r="539" spans="2:6" ht="12.5">
-      <c r="B539" s="57"/>
+      <c r="B539" s="56"/>
       <c r="F539" s="1"/>
     </row>
     <row r="540" spans="2:6" ht="12.5">
-      <c r="B540" s="57"/>
+      <c r="B540" s="56"/>
       <c r="F540" s="1"/>
     </row>
     <row r="541" spans="2:6" ht="12.5">
-      <c r="B541" s="57"/>
+      <c r="B541" s="56"/>
       <c r="F541" s="1"/>
     </row>
     <row r="542" spans="2:6" ht="12.5">
-      <c r="B542" s="57"/>
+      <c r="B542" s="56"/>
       <c r="F542" s="1"/>
     </row>
     <row r="543" spans="2:6" ht="12.5">
-      <c r="B543" s="57"/>
+      <c r="B543" s="56"/>
       <c r="F543" s="1"/>
     </row>
     <row r="544" spans="2:6" ht="12.5">
-      <c r="B544" s="57"/>
+      <c r="B544" s="56"/>
       <c r="F544" s="1"/>
     </row>
     <row r="545" spans="2:6" ht="12.5">
-      <c r="B545" s="57"/>
+      <c r="B545" s="56"/>
       <c r="F545" s="1"/>
     </row>
     <row r="546" spans="2:6" ht="12.5">
-      <c r="B546" s="57"/>
+      <c r="B546" s="56"/>
       <c r="F546" s="1"/>
     </row>
     <row r="547" spans="2:6" ht="12.5">
-      <c r="B547" s="57"/>
+      <c r="B547" s="56"/>
       <c r="F547" s="1"/>
     </row>
     <row r="548" spans="2:6" ht="12.5">
-      <c r="B548" s="57"/>
+      <c r="B548" s="56"/>
       <c r="F548" s="1"/>
     </row>
     <row r="549" spans="2:6" ht="12.5">
-      <c r="B549" s="57"/>
+      <c r="B549" s="56"/>
       <c r="F549" s="1"/>
     </row>
     <row r="550" spans="2:6" ht="12.5">
-      <c r="B550" s="57"/>
+      <c r="B550" s="56"/>
       <c r="F550" s="1"/>
     </row>
     <row r="551" spans="2:6" ht="12.5">
-      <c r="B551" s="57"/>
+      <c r="B551" s="56"/>
       <c r="F551" s="1"/>
     </row>
     <row r="552" spans="2:6" ht="12.5">
-      <c r="B552" s="57"/>
+      <c r="B552" s="56"/>
       <c r="F552" s="1"/>
     </row>
     <row r="553" spans="2:6" ht="12.5">
-      <c r="B553" s="57"/>
+      <c r="B553" s="56"/>
       <c r="F553" s="1"/>
     </row>
     <row r="554" spans="2:6" ht="12.5">
-      <c r="B554" s="57"/>
+      <c r="B554" s="56"/>
       <c r="F554" s="1"/>
     </row>
     <row r="555" spans="2:6" ht="12.5">
-      <c r="B555" s="57"/>
+      <c r="B555" s="56"/>
       <c r="F555" s="1"/>
     </row>
     <row r="556" spans="2:6" ht="12.5">
-      <c r="B556" s="57"/>
+      <c r="B556" s="56"/>
       <c r="F556" s="1"/>
     </row>
     <row r="557" spans="2:6" ht="12.5">
-      <c r="B557" s="57"/>
+      <c r="B557" s="56"/>
       <c r="F557" s="1"/>
     </row>
     <row r="558" spans="2:6" ht="12.5">
-      <c r="B558" s="57"/>
+      <c r="B558" s="56"/>
       <c r="F558" s="1"/>
     </row>
     <row r="559" spans="2:6" ht="12.5">
-      <c r="B559" s="57"/>
+      <c r="B559" s="56"/>
       <c r="F559" s="1"/>
     </row>
     <row r="560" spans="2:6" ht="12.5">
-      <c r="B560" s="57"/>
+      <c r="B560" s="56"/>
       <c r="F560" s="1"/>
     </row>
     <row r="561" spans="2:6" ht="12.5">
-      <c r="B561" s="57"/>
+      <c r="B561" s="56"/>
       <c r="F561" s="1"/>
     </row>
     <row r="562" spans="2:6" ht="12.5">
-      <c r="B562" s="57"/>
+      <c r="B562" s="56"/>
       <c r="F562" s="1"/>
     </row>
     <row r="563" spans="2:6" ht="12.5">
-      <c r="B563" s="57"/>
+      <c r="B563" s="56"/>
       <c r="F563" s="1"/>
     </row>
     <row r="564" spans="2:6" ht="12.5">
-      <c r="B564" s="57"/>
+      <c r="B564" s="56"/>
       <c r="F564" s="1"/>
     </row>
     <row r="565" spans="2:6" ht="12.5">
-      <c r="B565" s="57"/>
+      <c r="B565" s="56"/>
       <c r="F565" s="1"/>
     </row>
     <row r="566" spans="2:6" ht="12.5">
-      <c r="B566" s="57"/>
+      <c r="B566" s="56"/>
       <c r="F566" s="1"/>
     </row>
     <row r="567" spans="2:6" ht="12.5">
-      <c r="B567" s="57"/>
+      <c r="B567" s="56"/>
       <c r="F567" s="1"/>
     </row>
     <row r="568" spans="2:6" ht="12.5">
-      <c r="B568" s="57"/>
+      <c r="B568" s="56"/>
       <c r="F568" s="1"/>
     </row>
     <row r="569" spans="2:6" ht="12.5">
-      <c r="B569" s="57"/>
+      <c r="B569" s="56"/>
       <c r="F569" s="1"/>
     </row>
     <row r="570" spans="2:6" ht="12.5">
-      <c r="B570" s="57"/>
+      <c r="B570" s="56"/>
       <c r="F570" s="1"/>
     </row>
     <row r="571" spans="2:6" ht="12.5">
-      <c r="B571" s="57"/>
+      <c r="B571" s="56"/>
       <c r="F571" s="1"/>
     </row>
     <row r="572" spans="2:6" ht="12.5">
-      <c r="B572" s="57"/>
+      <c r="B572" s="56"/>
       <c r="F572" s="1"/>
     </row>
     <row r="573" spans="2:6" ht="12.5">
-      <c r="B573" s="57"/>
+      <c r="B573" s="56"/>
       <c r="F573" s="1"/>
     </row>
     <row r="574" spans="2:6" ht="12.5">
-      <c r="B574" s="57"/>
+      <c r="B574" s="56"/>
       <c r="F574" s="1"/>
     </row>
     <row r="575" spans="2:6" ht="12.5">
-      <c r="B575" s="57"/>
+      <c r="B575" s="56"/>
       <c r="F575" s="1"/>
     </row>
     <row r="576" spans="2:6" ht="12.5">
-      <c r="B576" s="57"/>
+      <c r="B576" s="56"/>
       <c r="F576" s="1"/>
     </row>
     <row r="577" spans="2:6" ht="12.5">
-      <c r="B577" s="57"/>
+      <c r="B577" s="56"/>
       <c r="F577" s="1"/>
     </row>
     <row r="578" spans="2:6" ht="12.5">
-      <c r="B578" s="57"/>
+      <c r="B578" s="56"/>
       <c r="F578" s="1"/>
     </row>
     <row r="579" spans="2:6" ht="12.5">
-      <c r="B579" s="57"/>
+      <c r="B579" s="56"/>
       <c r="F579" s="1"/>
     </row>
     <row r="580" spans="2:6" ht="12.5">
-      <c r="B580" s="57"/>
+      <c r="B580" s="56"/>
       <c r="F580" s="1"/>
     </row>
     <row r="581" spans="2:6" ht="12.5">
-      <c r="B581" s="57"/>
+      <c r="B581" s="56"/>
       <c r="F581" s="1"/>
     </row>
     <row r="582" spans="2:6" ht="12.5">
-      <c r="B582" s="57"/>
+      <c r="B582" s="56"/>
       <c r="F582" s="1"/>
     </row>
     <row r="583" spans="2:6" ht="12.5">
-      <c r="B583" s="57"/>
+      <c r="B583" s="56"/>
       <c r="F583" s="1"/>
     </row>
     <row r="584" spans="2:6" ht="12.5">
-      <c r="B584" s="57"/>
+      <c r="B584" s="56"/>
       <c r="F584" s="1"/>
     </row>
     <row r="585" spans="2:6" ht="12.5">
-      <c r="B585" s="57"/>
+      <c r="B585" s="56"/>
       <c r="F585" s="1"/>
     </row>
     <row r="586" spans="2:6" ht="12.5">
-      <c r="B586" s="57"/>
+      <c r="B586" s="56"/>
       <c r="F586" s="1"/>
     </row>
     <row r="587" spans="2:6" ht="12.5">
-      <c r="B587" s="57"/>
+      <c r="B587" s="56"/>
       <c r="F587" s="1"/>
     </row>
     <row r="588" spans="2:6" ht="12.5">
-      <c r="B588" s="57"/>
+      <c r="B588" s="56"/>
       <c r="F588" s="1"/>
     </row>
     <row r="589" spans="2:6" ht="12.5">
-      <c r="B589" s="57"/>
+      <c r="B589" s="56"/>
       <c r="F589" s="1"/>
     </row>
     <row r="590" spans="2:6" ht="12.5">
-      <c r="B590" s="57"/>
+      <c r="B590" s="56"/>
       <c r="F590" s="1"/>
     </row>
     <row r="591" spans="2:6" ht="12.5">
-      <c r="B591" s="57"/>
+      <c r="B591" s="56"/>
       <c r="F591" s="1"/>
     </row>
     <row r="592" spans="2:6" ht="12.5">
-      <c r="B592" s="57"/>
+      <c r="B592" s="56"/>
       <c r="F592" s="1"/>
     </row>
     <row r="593" spans="2:6" ht="12.5">
-      <c r="B593" s="57"/>
+      <c r="B593" s="56"/>
       <c r="F593" s="1"/>
     </row>
     <row r="594" spans="2:6" ht="12.5">
-      <c r="B594" s="57"/>
+      <c r="B594" s="56"/>
       <c r="F594" s="1"/>
     </row>
     <row r="595" spans="2:6" ht="12.5">
-      <c r="B595" s="57"/>
+      <c r="B595" s="56"/>
       <c r="F595" s="1"/>
     </row>
     <row r="596" spans="2:6" ht="12.5">
-      <c r="B596" s="57"/>
+      <c r="B596" s="56"/>
       <c r="F596" s="1"/>
     </row>
     <row r="597" spans="2:6" ht="12.5">
-      <c r="B597" s="57"/>
+      <c r="B597" s="56"/>
       <c r="F597" s="1"/>
     </row>
     <row r="598" spans="2:6" ht="12.5">
-      <c r="B598" s="57"/>
+      <c r="B598" s="56"/>
       <c r="F598" s="1"/>
     </row>
     <row r="599" spans="2:6" ht="12.5">
-      <c r="B599" s="57"/>
+      <c r="B599" s="56"/>
       <c r="F599" s="1"/>
     </row>
     <row r="600" spans="2:6" ht="12.5">
-      <c r="B600" s="57"/>
+      <c r="B600" s="56"/>
       <c r="F600" s="1"/>
     </row>
     <row r="601" spans="2:6" ht="12.5">
-      <c r="B601" s="57"/>
+      <c r="B601" s="56"/>
       <c r="F601" s="1"/>
     </row>
     <row r="602" spans="2:6" ht="12.5">
-      <c r="B602" s="57"/>
+      <c r="B602" s="56"/>
       <c r="F602" s="1"/>
     </row>
     <row r="603" spans="2:6" ht="12.5">
-      <c r="B603" s="57"/>
+      <c r="B603" s="56"/>
       <c r="F603" s="1"/>
     </row>
     <row r="604" spans="2:6" ht="12.5">
-      <c r="B604" s="57"/>
+      <c r="B604" s="56"/>
       <c r="F604" s="1"/>
     </row>
     <row r="605" spans="2:6" ht="12.5">
-      <c r="B605" s="57"/>
+      <c r="B605" s="56"/>
       <c r="F605" s="1"/>
     </row>
     <row r="606" spans="2:6" ht="12.5">
-      <c r="B606" s="57"/>
+      <c r="B606" s="56"/>
       <c r="F606" s="1"/>
     </row>
     <row r="607" spans="2:6" ht="12.5">
-      <c r="B607" s="57"/>
+      <c r="B607" s="56"/>
       <c r="F607" s="1"/>
     </row>
     <row r="608" spans="2:6" ht="12.5">
-      <c r="B608" s="57"/>
+      <c r="B608" s="56"/>
       <c r="F608" s="1"/>
     </row>
     <row r="609" spans="2:6" ht="12.5">
-      <c r="B609" s="57"/>
+      <c r="B609" s="56"/>
       <c r="F609" s="1"/>
     </row>
     <row r="610" spans="2:6" ht="12.5">
-      <c r="B610" s="57"/>
+      <c r="B610" s="56"/>
       <c r="F610" s="1"/>
     </row>
     <row r="611" spans="2:6" ht="12.5">
-      <c r="B611" s="57"/>
+      <c r="B611" s="56"/>
       <c r="F611" s="1"/>
     </row>
     <row r="612" spans="2:6" ht="12.5">
-      <c r="B612" s="57"/>
+      <c r="B612" s="56"/>
       <c r="F612" s="1"/>
     </row>
     <row r="613" spans="2:6" ht="12.5">
-      <c r="B613" s="57"/>
+      <c r="B613" s="56"/>
       <c r="F613" s="1"/>
     </row>
     <row r="614" spans="2:6" ht="12.5">
-      <c r="B614" s="57"/>
+      <c r="B614" s="56"/>
       <c r="F614" s="1"/>
     </row>
     <row r="615" spans="2:6" ht="12.5">
-      <c r="B615" s="57"/>
+      <c r="B615" s="56"/>
       <c r="F615" s="1"/>
     </row>
     <row r="616" spans="2:6" ht="12.5">
-      <c r="B616" s="57"/>
+      <c r="B616" s="56"/>
       <c r="F616" s="1"/>
     </row>
     <row r="617" spans="2:6" ht="12.5">
-      <c r="B617" s="57"/>
+      <c r="B617" s="56"/>
       <c r="F617" s="1"/>
     </row>
     <row r="618" spans="2:6" ht="12.5">
-      <c r="B618" s="57"/>
+      <c r="B618" s="56"/>
       <c r="F618" s="1"/>
     </row>
     <row r="619" spans="2:6" ht="12.5">
-      <c r="B619" s="57"/>
+      <c r="B619" s="56"/>
       <c r="F619" s="1"/>
     </row>
     <row r="620" spans="2:6" ht="12.5">
-      <c r="B620" s="57"/>
+      <c r="B620" s="56"/>
       <c r="F620" s="1"/>
     </row>
     <row r="621" spans="2:6" ht="12.5">
-      <c r="B621" s="57"/>
+      <c r="B621" s="56"/>
       <c r="F621" s="1"/>
     </row>
     <row r="622" spans="2:6" ht="12.5">
-      <c r="B622" s="57"/>
+      <c r="B622" s="56"/>
       <c r="F622" s="1"/>
     </row>
     <row r="623" spans="2:6" ht="12.5">
-      <c r="B623" s="57"/>
+      <c r="B623" s="56"/>
       <c r="F623" s="1"/>
     </row>
     <row r="624" spans="2:6" ht="12.5">
-      <c r="B624" s="57"/>
+      <c r="B624" s="56"/>
       <c r="F624" s="1"/>
     </row>
     <row r="625" spans="2:6" ht="12.5">
-      <c r="B625" s="57"/>
+      <c r="B625" s="56"/>
       <c r="F625" s="1"/>
     </row>
     <row r="626" spans="2:6" ht="12.5">
-      <c r="B626" s="57"/>
+      <c r="B626" s="56"/>
       <c r="F626" s="1"/>
     </row>
     <row r="627" spans="2:6" ht="12.5">
-      <c r="B627" s="57"/>
+      <c r="B627" s="56"/>
       <c r="F627" s="1"/>
     </row>
     <row r="628" spans="2:6" ht="12.5">
-      <c r="B628" s="57"/>
+      <c r="B628" s="56"/>
       <c r="F628" s="1"/>
     </row>
     <row r="629" spans="2:6" ht="12.5">
-      <c r="B629" s="57"/>
+      <c r="B629" s="56"/>
       <c r="F629" s="1"/>
     </row>
     <row r="630" spans="2:6" ht="12.5">
-      <c r="B630" s="57"/>
+      <c r="B630" s="56"/>
       <c r="F630" s="1"/>
     </row>
     <row r="631" spans="2:6" ht="12.5">
-      <c r="B631" s="57"/>
+      <c r="B631" s="56"/>
       <c r="F631" s="1"/>
     </row>
     <row r="632" spans="2:6" ht="12.5">
-      <c r="B632" s="57"/>
+      <c r="B632" s="56"/>
       <c r="F632" s="1"/>
     </row>
     <row r="633" spans="2:6" ht="12.5">
-      <c r="B633" s="57"/>
+      <c r="B633" s="56"/>
       <c r="F633" s="1"/>
     </row>
     <row r="634" spans="2:6" ht="12.5">
-      <c r="B634" s="57"/>
+      <c r="B634" s="56"/>
       <c r="F634" s="1"/>
     </row>
     <row r="635" spans="2:6" ht="12.5">
-      <c r="B635" s="57"/>
+      <c r="B635" s="56"/>
       <c r="F635" s="1"/>
     </row>
     <row r="636" spans="2:6" ht="12.5">
-      <c r="B636" s="57"/>
+      <c r="B636" s="56"/>
       <c r="F636" s="1"/>
     </row>
     <row r="637" spans="2:6" ht="12.5">
-      <c r="B637" s="57"/>
+      <c r="B637" s="56"/>
       <c r="F637" s="1"/>
     </row>
     <row r="638" spans="2:6" ht="12.5">
-      <c r="B638" s="57"/>
+      <c r="B638" s="56"/>
       <c r="F638" s="1"/>
     </row>
     <row r="639" spans="2:6" ht="12.5">
-      <c r="B639" s="57"/>
+      <c r="B639" s="56"/>
       <c r="F639" s="1"/>
     </row>
     <row r="640" spans="2:6" ht="12.5">
-      <c r="B640" s="57"/>
+      <c r="B640" s="56"/>
       <c r="F640" s="1"/>
     </row>
     <row r="641" spans="2:6" ht="12.5">
-      <c r="B641" s="57"/>
+      <c r="B641" s="56"/>
       <c r="F641" s="1"/>
     </row>
     <row r="642" spans="2:6" ht="12.5">
-      <c r="B642" s="57"/>
+      <c r="B642" s="56"/>
       <c r="F642" s="1"/>
     </row>
     <row r="643" spans="2:6" ht="12.5">
-      <c r="B643" s="57"/>
+      <c r="B643" s="56"/>
       <c r="F643" s="1"/>
     </row>
     <row r="644" spans="2:6" ht="12.5">
-      <c r="B644" s="57"/>
+      <c r="B644" s="56"/>
       <c r="F644" s="1"/>
     </row>
     <row r="645" spans="2:6" ht="12.5">
-      <c r="B645" s="57"/>
+      <c r="B645" s="56"/>
       <c r="F645" s="1"/>
     </row>
     <row r="646" spans="2:6" ht="12.5">
-      <c r="B646" s="57"/>
+      <c r="B646" s="56"/>
       <c r="F646" s="1"/>
     </row>
     <row r="647" spans="2:6" ht="12.5">
-      <c r="B647" s="57"/>
+      <c r="B647" s="56"/>
       <c r="F647" s="1"/>
     </row>
     <row r="648" spans="2:6" ht="12.5">
-      <c r="B648" s="57"/>
+      <c r="B648" s="56"/>
       <c r="F648" s="1"/>
     </row>
     <row r="649" spans="2:6" ht="12.5">
-      <c r="B649" s="57"/>
+      <c r="B649" s="56"/>
       <c r="F649" s="1"/>
     </row>
     <row r="650" spans="2:6" ht="12.5">
-      <c r="B650" s="57"/>
+      <c r="B650" s="56"/>
       <c r="F650" s="1"/>
     </row>
     <row r="651" spans="2:6" ht="12.5">
-      <c r="B651" s="57"/>
+      <c r="B651" s="56"/>
       <c r="F651" s="1"/>
     </row>
     <row r="652" spans="2:6" ht="12.5">
-      <c r="B652" s="57"/>
+      <c r="B652" s="56"/>
       <c r="F652" s="1"/>
     </row>
     <row r="653" spans="2:6" ht="12.5">
-      <c r="B653" s="57"/>
+      <c r="B653" s="56"/>
       <c r="F653" s="1"/>
     </row>
     <row r="654" spans="2:6" ht="12.5">
-      <c r="B654" s="57"/>
+      <c r="B654" s="56"/>
       <c r="F654" s="1"/>
     </row>
     <row r="655" spans="2:6" ht="12.5">
-      <c r="B655" s="57"/>
+      <c r="B655" s="56"/>
       <c r="F655" s="1"/>
     </row>
     <row r="656" spans="2:6" ht="12.5">
-      <c r="B656" s="57"/>
+      <c r="B656" s="56"/>
       <c r="F656" s="1"/>
     </row>
     <row r="657" spans="2:6" ht="12.5">
-      <c r="B657" s="57"/>
+      <c r="B657" s="56"/>
       <c r="F657" s="1"/>
     </row>
     <row r="658" spans="2:6" ht="12.5">
-      <c r="B658" s="57"/>
+      <c r="B658" s="56"/>
       <c r="F658" s="1"/>
     </row>
     <row r="659" spans="2:6" ht="12.5">
-      <c r="B659" s="57"/>
+      <c r="B659" s="56"/>
       <c r="F659" s="1"/>
     </row>
     <row r="660" spans="2:6" ht="12.5">
-      <c r="B660" s="57"/>
+      <c r="B660" s="56"/>
       <c r="F660" s="1"/>
     </row>
     <row r="661" spans="2:6" ht="12.5">
-      <c r="B661" s="57"/>
+      <c r="B661" s="56"/>
       <c r="F661" s="1"/>
     </row>
     <row r="662" spans="2:6" ht="12.5">
-      <c r="B662" s="57"/>
+      <c r="B662" s="56"/>
       <c r="F662" s="1"/>
     </row>
     <row r="663" spans="2:6" ht="12.5">
-      <c r="B663" s="57"/>
+      <c r="B663" s="56"/>
       <c r="F663" s="1"/>
     </row>
     <row r="664" spans="2:6" ht="12.5">
-      <c r="B664" s="57"/>
+      <c r="B664" s="56"/>
       <c r="F664" s="1"/>
     </row>
     <row r="665" spans="2:6" ht="12.5">
-      <c r="B665" s="57"/>
+      <c r="B665" s="56"/>
       <c r="F665" s="1"/>
     </row>
     <row r="666" spans="2:6" ht="12.5">
-      <c r="B666" s="57"/>
+      <c r="B666" s="56"/>
       <c r="F666" s="1"/>
     </row>
     <row r="667" spans="2:6" ht="12.5">
-      <c r="B667" s="57"/>
+      <c r="B667" s="56"/>
       <c r="F667" s="1"/>
     </row>
     <row r="668" spans="2:6" ht="12.5">
-      <c r="B668" s="57"/>
+      <c r="B668" s="56"/>
       <c r="F668" s="1"/>
     </row>
     <row r="669" spans="2:6" ht="12.5">
-      <c r="B669" s="57"/>
+      <c r="B669" s="56"/>
       <c r="F669" s="1"/>
     </row>
     <row r="670" spans="2:6" ht="12.5">
-      <c r="B670" s="57"/>
+      <c r="B670" s="56"/>
       <c r="F670" s="1"/>
     </row>
     <row r="671" spans="2:6" ht="12.5">
-      <c r="B671" s="57"/>
+      <c r="B671" s="56"/>
       <c r="F671" s="1"/>
     </row>
     <row r="672" spans="2:6" ht="12.5">
-      <c r="B672" s="57"/>
+      <c r="B672" s="56"/>
       <c r="F672" s="1"/>
     </row>
     <row r="673" spans="2:6" ht="12.5">
-      <c r="B673" s="57"/>
+      <c r="B673" s="56"/>
       <c r="F673" s="1"/>
     </row>
     <row r="674" spans="2:6" ht="12.5">
-      <c r="B674" s="57"/>
+      <c r="B674" s="56"/>
       <c r="F674" s="1"/>
     </row>
     <row r="675" spans="2:6" ht="12.5">
-      <c r="B675" s="57"/>
+      <c r="B675" s="56"/>
       <c r="F675" s="1"/>
     </row>
     <row r="676" spans="2:6" ht="12.5">
-      <c r="B676" s="57"/>
+      <c r="B676" s="56"/>
       <c r="F676" s="1"/>
     </row>
     <row r="677" spans="2:6" ht="12.5">
-      <c r="B677" s="57"/>
+      <c r="B677" s="56"/>
       <c r="F677" s="1"/>
     </row>
     <row r="678" spans="2:6" ht="12.5">
-      <c r="B678" s="57"/>
+      <c r="B678" s="56"/>
       <c r="F678" s="1"/>
     </row>
     <row r="679" spans="2:6" ht="12.5">
-      <c r="B679" s="57"/>
+      <c r="B679" s="56"/>
       <c r="F679" s="1"/>
     </row>
     <row r="680" spans="2:6" ht="12.5">
-      <c r="B680" s="57"/>
+      <c r="B680" s="56"/>
       <c r="F680" s="1"/>
     </row>
     <row r="681" spans="2:6" ht="12.5">
-      <c r="B681" s="57"/>
+      <c r="B681" s="56"/>
       <c r="F681" s="1"/>
     </row>
     <row r="682" spans="2:6" ht="12.5">
-      <c r="B682" s="57"/>
+      <c r="B682" s="56"/>
       <c r="F682" s="1"/>
     </row>
     <row r="683" spans="2:6" ht="12.5">
-      <c r="B683" s="57"/>
+      <c r="B683" s="56"/>
       <c r="F683" s="1"/>
     </row>
     <row r="684" spans="2:6" ht="12.5">
-      <c r="B684" s="57"/>
+      <c r="B684" s="56"/>
       <c r="F684" s="1"/>
     </row>
     <row r="685" spans="2:6" ht="12.5">
-      <c r="B685" s="57"/>
+      <c r="B685" s="56"/>
       <c r="F685" s="1"/>
     </row>
     <row r="686" spans="2:6" ht="12.5">
-      <c r="B686" s="57"/>
+      <c r="B686" s="56"/>
       <c r="F686" s="1"/>
     </row>
     <row r="687" spans="2:6" ht="12.5">
-      <c r="B687" s="57"/>
+      <c r="B687" s="56"/>
       <c r="F687" s="1"/>
     </row>
     <row r="688" spans="2:6" ht="12.5">
-      <c r="B688" s="57"/>
+      <c r="B688" s="56"/>
       <c r="F688" s="1"/>
     </row>
     <row r="689" spans="2:6" ht="12.5">
-      <c r="B689" s="57"/>
+      <c r="B689" s="56"/>
       <c r="F689" s="1"/>
     </row>
     <row r="690" spans="2:6" ht="12.5">
-      <c r="B690" s="57"/>
+      <c r="B690" s="56"/>
       <c r="F690" s="1"/>
     </row>
     <row r="691" spans="2:6" ht="12.5">
-      <c r="B691" s="57"/>
+      <c r="B691" s="56"/>
       <c r="F691" s="1"/>
     </row>
     <row r="692" spans="2:6" ht="12.5">
-      <c r="B692" s="57"/>
+      <c r="B692" s="56"/>
       <c r="F692" s="1"/>
     </row>
     <row r="693" spans="2:6" ht="12.5">
-      <c r="B693" s="57"/>
+      <c r="B693" s="56"/>
       <c r="F693" s="1"/>
     </row>
     <row r="694" spans="2:6" ht="12.5">
-      <c r="B694" s="57"/>
+      <c r="B694" s="56"/>
       <c r="F694" s="1"/>
     </row>
     <row r="695" spans="2:6" ht="12.5">
-      <c r="B695" s="57"/>
+      <c r="B695" s="56"/>
       <c r="F695" s="1"/>
     </row>
     <row r="696" spans="2:6" ht="12.5">
-      <c r="B696" s="57"/>
+      <c r="B696" s="56"/>
       <c r="F696" s="1"/>
     </row>
     <row r="697" spans="2:6" ht="12.5">
-      <c r="B697" s="57"/>
+      <c r="B697" s="56"/>
       <c r="F697" s="1"/>
     </row>
     <row r="698" spans="2:6" ht="12.5">
-      <c r="B698" s="57"/>
+      <c r="B698" s="56"/>
       <c r="F698" s="1"/>
     </row>
     <row r="699" spans="2:6" ht="12.5">
-      <c r="B699" s="57"/>
+      <c r="B699" s="56"/>
       <c r="F699" s="1"/>
     </row>
     <row r="700" spans="2:6" ht="12.5">
-      <c r="B700" s="57"/>
+      <c r="B700" s="56"/>
       <c r="F700" s="1"/>
     </row>
     <row r="701" spans="2:6" ht="12.5">
-      <c r="B701" s="57"/>
+      <c r="B701" s="56"/>
       <c r="F701" s="1"/>
     </row>
     <row r="702" spans="2:6" ht="12.5">
-      <c r="B702" s="57"/>
+      <c r="B702" s="56"/>
       <c r="F702" s="1"/>
     </row>
     <row r="703" spans="2:6" ht="12.5">
-      <c r="B703" s="57"/>
+      <c r="B703" s="56"/>
       <c r="F703" s="1"/>
     </row>
     <row r="704" spans="2:6" ht="12.5">
-      <c r="B704" s="57"/>
+      <c r="B704" s="56"/>
       <c r="F704" s="1"/>
     </row>
     <row r="705" spans="2:6" ht="12.5">
-      <c r="B705" s="57"/>
+      <c r="B705" s="56"/>
       <c r="F705" s="1"/>
     </row>
     <row r="706" spans="2:6" ht="12.5">
-      <c r="B706" s="57"/>
+      <c r="B706" s="56"/>
       <c r="F706" s="1"/>
     </row>
     <row r="707" spans="2:6" ht="12.5">
-      <c r="B707" s="57"/>
+      <c r="B707" s="56"/>
       <c r="F707" s="1"/>
     </row>
     <row r="708" spans="2:6" ht="12.5">
-      <c r="B708" s="57"/>
+      <c r="B708" s="56"/>
       <c r="F708" s="1"/>
     </row>
     <row r="709" spans="2:6" ht="12.5">
-      <c r="B709" s="57"/>
+      <c r="B709" s="56"/>
       <c r="F709" s="1"/>
     </row>
     <row r="710" spans="2:6" ht="12.5">
-      <c r="B710" s="57"/>
+      <c r="B710" s="56"/>
       <c r="F710" s="1"/>
     </row>
     <row r="711" spans="2:6" ht="12.5">
-      <c r="B711" s="57"/>
+      <c r="B711" s="56"/>
       <c r="F711" s="1"/>
     </row>
     <row r="712" spans="2:6" ht="12.5">
-      <c r="B712" s="57"/>
+      <c r="B712" s="56"/>
       <c r="F712" s="1"/>
     </row>
     <row r="713" spans="2:6" ht="12.5">
-      <c r="B713" s="57"/>
+      <c r="B713" s="56"/>
       <c r="F713" s="1"/>
     </row>
     <row r="714" spans="2:6" ht="12.5">
-      <c r="B714" s="57"/>
+      <c r="B714" s="56"/>
       <c r="F714" s="1"/>
     </row>
     <row r="715" spans="2:6" ht="12.5">
-      <c r="B715" s="57"/>
+      <c r="B715" s="56"/>
       <c r="F715" s="1"/>
     </row>
     <row r="716" spans="2:6" ht="12.5">
-      <c r="B716" s="57"/>
+      <c r="B716" s="56"/>
       <c r="F716" s="1"/>
     </row>
     <row r="717" spans="2:6" ht="12.5">
-      <c r="B717" s="57"/>
+      <c r="B717" s="56"/>
       <c r="F717" s="1"/>
     </row>
     <row r="718" spans="2:6" ht="12.5">
-      <c r="B718" s="57"/>
+      <c r="B718" s="56"/>
       <c r="F718" s="1"/>
     </row>
     <row r="719" spans="2:6" ht="12.5">
-      <c r="B719" s="57"/>
+      <c r="B719" s="56"/>
       <c r="F719" s="1"/>
     </row>
     <row r="720" spans="2:6" ht="12.5">
-      <c r="B720" s="57"/>
+      <c r="B720" s="56"/>
       <c r="F720" s="1"/>
     </row>
     <row r="721" spans="2:6" ht="12.5">
-      <c r="B721" s="57"/>
+      <c r="B721" s="56"/>
       <c r="F721" s="1"/>
     </row>
     <row r="722" spans="2:6" ht="12.5">
-      <c r="B722" s="57"/>
+      <c r="B722" s="56"/>
       <c r="F722" s="1"/>
     </row>
     <row r="723" spans="2:6" ht="12.5">
-      <c r="B723" s="57"/>
+      <c r="B723" s="56"/>
       <c r="F723" s="1"/>
     </row>
     <row r="724" spans="2:6" ht="12.5">
-      <c r="B724" s="57"/>
+      <c r="B724" s="56"/>
       <c r="F724" s="1"/>
     </row>
     <row r="725" spans="2:6" ht="12.5">
-      <c r="B725" s="57"/>
+      <c r="B725" s="56"/>
       <c r="F725" s="1"/>
     </row>
     <row r="726" spans="2:6" ht="12.5">
-      <c r="B726" s="57"/>
+      <c r="B726" s="56"/>
       <c r="F726" s="1"/>
     </row>
     <row r="727" spans="2:6" ht="12.5">
-      <c r="B727" s="57"/>
+      <c r="B727" s="56"/>
       <c r="F727" s="1"/>
     </row>
     <row r="728" spans="2:6" ht="12.5">
-      <c r="B728" s="57"/>
+      <c r="B728" s="56"/>
       <c r="F728" s="1"/>
     </row>
     <row r="729" spans="2:6" ht="12.5">
-      <c r="B729" s="57"/>
+      <c r="B729" s="56"/>
       <c r="F729" s="1"/>
     </row>
     <row r="730" spans="2:6" ht="12.5">
-      <c r="B730" s="57"/>
+      <c r="B730" s="56"/>
       <c r="F730" s="1"/>
     </row>
     <row r="731" spans="2:6" ht="12.5">
-      <c r="B731" s="57"/>
+      <c r="B731" s="56"/>
       <c r="F731" s="1"/>
     </row>
     <row r="732" spans="2:6" ht="12.5">
-      <c r="B732" s="57"/>
+      <c r="B732" s="56"/>
       <c r="F732" s="1"/>
     </row>
     <row r="733" spans="2:6" ht="12.5">
-      <c r="B733" s="57"/>
+      <c r="B733" s="56"/>
       <c r="F733" s="1"/>
     </row>
     <row r="734" spans="2:6" ht="12.5">
-      <c r="B734" s="57"/>
+      <c r="B734" s="56"/>
       <c r="F734" s="1"/>
     </row>
     <row r="735" spans="2:6" ht="12.5">
-      <c r="B735" s="57"/>
+      <c r="B735" s="56"/>
       <c r="F735" s="1"/>
     </row>
     <row r="736" spans="2:6" ht="12.5">
-      <c r="B736" s="57"/>
+      <c r="B736" s="56"/>
       <c r="F736" s="1"/>
     </row>
     <row r="737" spans="2:6" ht="12.5">
-      <c r="B737" s="57"/>
+      <c r="B737" s="56"/>
       <c r="F737" s="1"/>
     </row>
     <row r="738" spans="2:6" ht="12.5">
-      <c r="B738" s="57"/>
+      <c r="B738" s="56"/>
       <c r="F738" s="1"/>
     </row>
     <row r="739" spans="2:6" ht="12.5">
-      <c r="B739" s="57"/>
+      <c r="B739" s="56"/>
       <c r="F739" s="1"/>
     </row>
     <row r="740" spans="2:6" ht="12.5">
-      <c r="B740" s="57"/>
+      <c r="B740" s="56"/>
       <c r="F740" s="1"/>
     </row>
     <row r="741" spans="2:6" ht="12.5">
-      <c r="B741" s="57"/>
+      <c r="B741" s="56"/>
       <c r="F741" s="1"/>
     </row>
     <row r="742" spans="2:6" ht="12.5">
-      <c r="B742" s="57"/>
+      <c r="B742" s="56"/>
       <c r="F742" s="1"/>
     </row>
     <row r="743" spans="2:6" ht="12.5">
-      <c r="B743" s="57"/>
+      <c r="B743" s="56"/>
       <c r="F743" s="1"/>
     </row>
     <row r="744" spans="2:6" ht="12.5">
-      <c r="B744" s="57"/>
+      <c r="B744" s="56"/>
       <c r="F744" s="1"/>
     </row>
     <row r="745" spans="2:6" ht="12.5">
-      <c r="B745" s="57"/>
+      <c r="B745" s="56"/>
       <c r="F745" s="1"/>
     </row>
     <row r="746" spans="2:6" ht="12.5">
-      <c r="B746" s="57"/>
+      <c r="B746" s="56"/>
       <c r="F746" s="1"/>
     </row>
     <row r="747" spans="2:6" ht="12.5">
-      <c r="B747" s="57"/>
+      <c r="B747" s="56"/>
       <c r="F747" s="1"/>
     </row>
     <row r="748" spans="2:6" ht="12.5">
-      <c r="B748" s="57"/>
+      <c r="B748" s="56"/>
       <c r="F748" s="1"/>
     </row>
     <row r="749" spans="2:6" ht="12.5">
-      <c r="B749" s="57"/>
+      <c r="B749" s="56"/>
       <c r="F749" s="1"/>
     </row>
     <row r="750" spans="2:6" ht="12.5">
-      <c r="B750" s="57"/>
+      <c r="B750" s="56"/>
       <c r="F750" s="1"/>
     </row>
     <row r="751" spans="2:6" ht="12.5">
-      <c r="B751" s="57"/>
+      <c r="B751" s="56"/>
       <c r="F751" s="1"/>
     </row>
     <row r="752" spans="2:6" ht="12.5">
-      <c r="B752" s="57"/>
+      <c r="B752" s="56"/>
       <c r="F752" s="1"/>
     </row>
     <row r="753" spans="2:6" ht="12.5">
-      <c r="B753" s="57"/>
+      <c r="B753" s="56"/>
       <c r="F753" s="1"/>
     </row>
     <row r="754" spans="2:6" ht="12.5">
-      <c r="B754" s="57"/>
+      <c r="B754" s="56"/>
       <c r="F754" s="1"/>
     </row>
     <row r="755" spans="2:6" ht="12.5">
-      <c r="B755" s="57"/>
+      <c r="B755" s="56"/>
       <c r="F755" s="1"/>
     </row>
     <row r="756" spans="2:6" ht="12.5">
-      <c r="B756" s="57"/>
+      <c r="B756" s="56"/>
       <c r="F756" s="1"/>
     </row>
     <row r="757" spans="2:6" ht="12.5">
-      <c r="B757" s="57"/>
+      <c r="B757" s="56"/>
       <c r="F757" s="1"/>
     </row>
     <row r="758" spans="2:6" ht="12.5">
-      <c r="B758" s="57"/>
+      <c r="B758" s="56"/>
       <c r="F758" s="1"/>
     </row>
     <row r="759" spans="2:6" ht="12.5">
-      <c r="B759" s="57"/>
+      <c r="B759" s="56"/>
       <c r="F759" s="1"/>
     </row>
     <row r="760" spans="2:6" ht="12.5">
-      <c r="B760" s="57"/>
+      <c r="B760" s="56"/>
       <c r="F760" s="1"/>
     </row>
     <row r="761" spans="2:6" ht="12.5">
-      <c r="B761" s="57"/>
+      <c r="B761" s="56"/>
       <c r="F761" s="1"/>
     </row>
     <row r="762" spans="2:6" ht="12.5">
-      <c r="B762" s="57"/>
+      <c r="B762" s="56"/>
       <c r="F762" s="1"/>
     </row>
     <row r="763" spans="2:6" ht="12.5">
-      <c r="B763" s="57"/>
+      <c r="B763" s="56"/>
       <c r="F763" s="1"/>
     </row>
     <row r="764" spans="2:6" ht="12.5">
-      <c r="B764" s="57"/>
+      <c r="B764" s="56"/>
       <c r="F764" s="1"/>
     </row>
     <row r="765" spans="2:6" ht="12.5">
-      <c r="B765" s="57"/>
+      <c r="B765" s="56"/>
       <c r="F765" s="1"/>
     </row>
     <row r="766" spans="2:6" ht="12.5">
-      <c r="B766" s="57"/>
+      <c r="B766" s="56"/>
       <c r="F766" s="1"/>
     </row>
     <row r="767" spans="2:6" ht="12.5">
-      <c r="B767" s="57"/>
+      <c r="B767" s="56"/>
       <c r="F767" s="1"/>
     </row>
     <row r="768" spans="2:6" ht="12.5">
-      <c r="B768" s="57"/>
+      <c r="B768" s="56"/>
       <c r="F768" s="1"/>
     </row>
     <row r="769" spans="2:6" ht="12.5">
-      <c r="B769" s="57"/>
+      <c r="B769" s="56"/>
       <c r="F769" s="1"/>
     </row>
     <row r="770" spans="2:6" ht="12.5">
-      <c r="B770" s="57"/>
+      <c r="B770" s="56"/>
       <c r="F770" s="1"/>
     </row>
     <row r="771" spans="2:6" ht="12.5">
-      <c r="B771" s="57"/>
+      <c r="B771" s="56"/>
       <c r="F771" s="1"/>
     </row>
     <row r="772" spans="2:6" ht="12.5">
-      <c r="B772" s="57"/>
+      <c r="B772" s="56"/>
       <c r="F772" s="1"/>
     </row>
     <row r="773" spans="2:6" ht="12.5">
-      <c r="B773" s="57"/>
+      <c r="B773" s="56"/>
       <c r="F773" s="1"/>
     </row>
     <row r="774" spans="2:6" ht="12.5">
-      <c r="B774" s="57"/>
+      <c r="B774" s="56"/>
       <c r="F774" s="1"/>
     </row>
     <row r="775" spans="2:6" ht="12.5">
-      <c r="B775" s="57"/>
+      <c r="B775" s="56"/>
       <c r="F775" s="1"/>
     </row>
     <row r="776" spans="2:6" ht="12.5">
-      <c r="B776" s="57"/>
+      <c r="B776" s="56"/>
       <c r="F776" s="1"/>
     </row>
     <row r="777" spans="2:6" ht="12.5">
-      <c r="B777" s="57"/>
+      <c r="B777" s="56"/>
       <c r="F777" s="1"/>
     </row>
     <row r="778" spans="2:6" ht="12.5">
-      <c r="B778" s="57"/>
+      <c r="B778" s="56"/>
       <c r="F778" s="1"/>
     </row>
     <row r="779" spans="2:6" ht="12.5">
-      <c r="B779" s="57"/>
+      <c r="B779" s="56"/>
       <c r="F779" s="1"/>
     </row>
     <row r="780" spans="2:6" ht="12.5">
-      <c r="B780" s="57"/>
+      <c r="B780" s="56"/>
       <c r="F780" s="1"/>
     </row>
     <row r="781" spans="2:6" ht="12.5">
-      <c r="B781" s="57"/>
+      <c r="B781" s="56"/>
       <c r="F781" s="1"/>
     </row>
     <row r="782" spans="2:6" ht="12.5">
-      <c r="B782" s="57"/>
+      <c r="B782" s="56"/>
       <c r="F782" s="1"/>
     </row>
     <row r="783" spans="2:6" ht="12.5">
-      <c r="B783" s="57"/>
+      <c r="B783" s="56"/>
       <c r="F783" s="1"/>
     </row>
     <row r="784" spans="2:6" ht="12.5">
-      <c r="B784" s="57"/>
+      <c r="B784" s="56"/>
       <c r="F784" s="1"/>
     </row>
     <row r="785" spans="2:6" ht="12.5">
-      <c r="B785" s="57"/>
+      <c r="B785" s="56"/>
       <c r="F785" s="1"/>
     </row>
     <row r="786" spans="2:6" ht="12.5">
-      <c r="B786" s="57"/>
+      <c r="B786" s="56"/>
       <c r="F786" s="1"/>
     </row>
     <row r="787" spans="2:6" ht="12.5">
-      <c r="B787" s="57"/>
+      <c r="B787" s="56"/>
       <c r="F787" s="1"/>
     </row>
     <row r="788" spans="2:6" ht="12.5">
-      <c r="B788" s="57"/>
+      <c r="B788" s="56"/>
       <c r="F788" s="1"/>
     </row>
     <row r="789" spans="2:6" ht="12.5">
-      <c r="B789" s="57"/>
+      <c r="B789" s="56"/>
       <c r="F789" s="1"/>
     </row>
     <row r="790" spans="2:6" ht="12.5">
-      <c r="B790" s="57"/>
+      <c r="B790" s="56"/>
       <c r="F790" s="1"/>
     </row>
     <row r="791" spans="2:6" ht="12.5">
-      <c r="B791" s="57"/>
+      <c r="B791" s="56"/>
       <c r="F791" s="1"/>
     </row>
     <row r="792" spans="2:6" ht="12.5">
-      <c r="B792" s="57"/>
+      <c r="B792" s="56"/>
       <c r="F792" s="1"/>
     </row>
     <row r="793" spans="2:6" ht="12.5">
-      <c r="B793" s="57"/>
+      <c r="B793" s="56"/>
       <c r="F793" s="1"/>
     </row>
     <row r="794" spans="2:6" ht="12.5">
-      <c r="B794" s="57"/>
+      <c r="B794" s="56"/>
       <c r="F794" s="1"/>
     </row>
     <row r="795" spans="2:6" ht="12.5">
-      <c r="B795" s="57"/>
+      <c r="B795" s="56"/>
       <c r="F795" s="1"/>
     </row>
     <row r="796" spans="2:6" ht="12.5">
-      <c r="B796" s="57"/>
+      <c r="B796" s="56"/>
       <c r="F796" s="1"/>
     </row>
     <row r="797" spans="2:6" ht="12.5">
-      <c r="B797" s="57"/>
+      <c r="B797" s="56"/>
       <c r="F797" s="1"/>
     </row>
     <row r="798" spans="2:6" ht="12.5">
-      <c r="B798" s="57"/>
+      <c r="B798" s="56"/>
       <c r="F798" s="1"/>
     </row>
     <row r="799" spans="2:6" ht="12.5">
-      <c r="B799" s="57"/>
+      <c r="B799" s="56"/>
       <c r="F799" s="1"/>
     </row>
     <row r="800" spans="2:6" ht="12.5">
-      <c r="B800" s="57"/>
+      <c r="B800" s="56"/>
       <c r="F800" s="1"/>
     </row>
     <row r="801" spans="2:6" ht="12.5">
-      <c r="B801" s="57"/>
+      <c r="B801" s="56"/>
       <c r="F801" s="1"/>
     </row>
     <row r="802" spans="2:6" ht="12.5">
-      <c r="B802" s="57"/>
+      <c r="B802" s="56"/>
       <c r="F802" s="1"/>
     </row>
     <row r="803" spans="2:6" ht="12.5">
-      <c r="B803" s="57"/>
+      <c r="B803" s="56"/>
       <c r="F803" s="1"/>
     </row>
     <row r="804" spans="2:6" ht="12.5">
-      <c r="B804" s="57"/>
+      <c r="B804" s="56"/>
       <c r="F804" s="1"/>
     </row>
     <row r="805" spans="2:6" ht="12.5">
-      <c r="B805" s="57"/>
+      <c r="B805" s="56"/>
       <c r="F805" s="1"/>
     </row>
     <row r="806" spans="2:6" ht="12.5">
-      <c r="B806" s="57"/>
+      <c r="B806" s="56"/>
       <c r="F806" s="1"/>
     </row>
     <row r="807" spans="2:6" ht="12.5">
-      <c r="B807" s="57"/>
+      <c r="B807" s="56"/>
       <c r="F807" s="1"/>
     </row>
     <row r="808" spans="2:6" ht="12.5">
-      <c r="B808" s="57"/>
+      <c r="B808" s="56"/>
       <c r="F808" s="1"/>
     </row>
     <row r="809" spans="2:6" ht="12.5">
-      <c r="B809" s="57"/>
+      <c r="B809" s="56"/>
       <c r="F809" s="1"/>
     </row>
     <row r="810" spans="2:6" ht="12.5">
-      <c r="B810" s="57"/>
+      <c r="B810" s="56"/>
       <c r="F810" s="1"/>
     </row>
     <row r="811" spans="2:6" ht="12.5">
-      <c r="B811" s="57"/>
+      <c r="B811" s="56"/>
       <c r="F811" s="1"/>
     </row>
     <row r="812" spans="2:6" ht="12.5">
-      <c r="B812" s="57"/>
+      <c r="B812" s="56"/>
       <c r="F812" s="1"/>
     </row>
     <row r="813" spans="2:6" ht="12.5">
-      <c r="B813" s="57"/>
+      <c r="B813" s="56"/>
       <c r="F813" s="1"/>
     </row>
     <row r="814" spans="2:6" ht="12.5">
-      <c r="B814" s="57"/>
+      <c r="B814" s="56"/>
       <c r="F814" s="1"/>
     </row>
     <row r="815" spans="2:6" ht="12.5">
-      <c r="B815" s="57"/>
+      <c r="B815" s="56"/>
       <c r="F815" s="1"/>
     </row>
     <row r="816" spans="2:6" ht="12.5">
-      <c r="B816" s="57"/>
+      <c r="B816" s="56"/>
       <c r="F816" s="1"/>
     </row>
     <row r="817" spans="2:6" ht="12.5">
-      <c r="B817" s="57"/>
+      <c r="B817" s="56"/>
       <c r="F817" s="1"/>
     </row>
     <row r="818" spans="2:6" ht="12.5">
-      <c r="B818" s="57"/>
+      <c r="B818" s="56"/>
       <c r="F818" s="1"/>
     </row>
     <row r="819" spans="2:6" ht="12.5">
-      <c r="B819" s="57"/>
+      <c r="B819" s="56"/>
       <c r="F819" s="1"/>
     </row>
     <row r="820" spans="2:6" ht="12.5">
-      <c r="B820" s="57"/>
+      <c r="B820" s="56"/>
       <c r="F820" s="1"/>
     </row>
     <row r="821" spans="2:6" ht="12.5">
-      <c r="B821" s="57"/>
+      <c r="B821" s="56"/>
       <c r="F821" s="1"/>
     </row>
     <row r="822" spans="2:6" ht="12.5">
-      <c r="B822" s="57"/>
+      <c r="B822" s="56"/>
       <c r="F822" s="1"/>
     </row>
     <row r="823" spans="2:6" ht="12.5">
-      <c r="B823" s="57"/>
+      <c r="B823" s="56"/>
       <c r="F823" s="1"/>
     </row>
     <row r="824" spans="2:6" ht="12.5">
-      <c r="B824" s="57"/>
+      <c r="B824" s="56"/>
       <c r="F824" s="1"/>
     </row>
     <row r="825" spans="2:6" ht="12.5">
-      <c r="B825" s="57"/>
+      <c r="B825" s="56"/>
       <c r="F825" s="1"/>
     </row>
     <row r="826" spans="2:6" ht="12.5">
-      <c r="B826" s="57"/>
+      <c r="B826" s="56"/>
       <c r="F826" s="1"/>
     </row>
     <row r="827" spans="2:6" ht="12.5">
-      <c r="B827" s="57"/>
+      <c r="B827" s="56"/>
       <c r="F827" s="1"/>
     </row>
     <row r="828" spans="2:6" ht="12.5">
-      <c r="B828" s="57"/>
+      <c r="B828" s="56"/>
       <c r="F828" s="1"/>
     </row>
     <row r="829" spans="2:6" ht="12.5">
-      <c r="B829" s="57"/>
+      <c r="B829" s="56"/>
       <c r="F829" s="1"/>
     </row>
     <row r="830" spans="2:6" ht="12.5">
-      <c r="B830" s="57"/>
+      <c r="B830" s="56"/>
       <c r="F830" s="1"/>
     </row>
     <row r="831" spans="2:6" ht="12.5">
-      <c r="B831" s="57"/>
+      <c r="B831" s="56"/>
       <c r="F831" s="1"/>
     </row>
     <row r="832" spans="2:6" ht="12.5">
-      <c r="B832" s="57"/>
+      <c r="B832" s="56"/>
       <c r="F832" s="1"/>
     </row>
     <row r="833" spans="2:6" ht="12.5">
-      <c r="B833" s="57"/>
+      <c r="B833" s="56"/>
       <c r="F833" s="1"/>
     </row>
     <row r="834" spans="2:6" ht="12.5">
-      <c r="B834" s="57"/>
+      <c r="B834" s="56"/>
       <c r="F834" s="1"/>
     </row>
     <row r="835" spans="2:6" ht="12.5">
-      <c r="B835" s="57"/>
+      <c r="B835" s="56"/>
       <c r="F835" s="1"/>
     </row>
     <row r="836" spans="2:6" ht="12.5">
-      <c r="B836" s="57"/>
+      <c r="B836" s="56"/>
       <c r="F836" s="1"/>
     </row>
     <row r="837" spans="2:6" ht="12.5">
-      <c r="B837" s="57"/>
+      <c r="B837" s="56"/>
       <c r="F837" s="1"/>
     </row>
     <row r="838" spans="2:6" ht="12.5">
-      <c r="B838" s="57"/>
+      <c r="B838" s="56"/>
       <c r="F838" s="1"/>
     </row>
     <row r="839" spans="2:6" ht="12.5">
-      <c r="B839" s="57"/>
+      <c r="B839" s="56"/>
       <c r="F839" s="1"/>
     </row>
     <row r="840" spans="2:6" ht="12.5">
-      <c r="B840" s="57"/>
+      <c r="B840" s="56"/>
       <c r="F840" s="1"/>
     </row>
     <row r="841" spans="2:6" ht="12.5">
-      <c r="B841" s="57"/>
+      <c r="B841" s="56"/>
       <c r="F841" s="1"/>
     </row>
     <row r="842" spans="2:6" ht="12.5">
-      <c r="B842" s="57"/>
+      <c r="B842" s="56"/>
       <c r="F842" s="1"/>
     </row>
     <row r="843" spans="2:6" ht="12.5">
-      <c r="B843" s="57"/>
+      <c r="B843" s="56"/>
       <c r="F843" s="1"/>
     </row>
     <row r="844" spans="2:6" ht="12.5">
-      <c r="B844" s="57"/>
+      <c r="B844" s="56"/>
       <c r="F844" s="1"/>
     </row>
     <row r="845" spans="2:6" ht="12.5">
-      <c r="B845" s="57"/>
+      <c r="B845" s="56"/>
       <c r="F845" s="1"/>
     </row>
     <row r="846" spans="2:6" ht="12.5">
-      <c r="B846" s="57"/>
+      <c r="B846" s="56"/>
       <c r="F846" s="1"/>
     </row>
     <row r="847" spans="2:6" ht="12.5">
-      <c r="B847" s="57"/>
+      <c r="B847" s="56"/>
       <c r="F847" s="1"/>
     </row>
     <row r="848" spans="2:6" ht="12.5">
-      <c r="B848" s="57"/>
+      <c r="B848" s="56"/>
       <c r="F848" s="1"/>
     </row>
     <row r="849" spans="2:6" ht="12.5">
-      <c r="B849" s="57"/>
+      <c r="B849" s="56"/>
       <c r="F849" s="1"/>
     </row>
     <row r="850" spans="2:6" ht="12.5">
-      <c r="B850" s="57"/>
+      <c r="B850" s="56"/>
       <c r="F850" s="1"/>
     </row>
     <row r="851" spans="2:6" ht="12.5">
-      <c r="B851" s="57"/>
+      <c r="B851" s="56"/>
       <c r="F851" s="1"/>
     </row>
     <row r="852" spans="2:6" ht="12.5">
-      <c r="B852" s="57"/>
+      <c r="B852" s="56"/>
       <c r="F852" s="1"/>
     </row>
     <row r="853" spans="2:6" ht="12.5">
-      <c r="B853" s="57"/>
+      <c r="B853" s="56"/>
       <c r="F853" s="1"/>
     </row>
     <row r="854" spans="2:6" ht="12.5">
-      <c r="B854" s="57"/>
+      <c r="B854" s="56"/>
       <c r="F854" s="1"/>
     </row>
     <row r="855" spans="2:6" ht="12.5">
-      <c r="B855" s="57"/>
+      <c r="B855" s="56"/>
       <c r="F855" s="1"/>
     </row>
     <row r="856" spans="2:6" ht="12.5">
-      <c r="B856" s="57"/>
+      <c r="B856" s="56"/>
       <c r="F856" s="1"/>
     </row>
     <row r="857" spans="2:6" ht="12.5">
-      <c r="B857" s="57"/>
+      <c r="B857" s="56"/>
       <c r="F857" s="1"/>
     </row>
     <row r="858" spans="2:6" ht="12.5">
-      <c r="B858" s="57"/>
+      <c r="B858" s="56"/>
       <c r="F858" s="1"/>
     </row>
     <row r="859" spans="2:6" ht="12.5">
-      <c r="B859" s="57"/>
+      <c r="B859" s="56"/>
       <c r="F859" s="1"/>
     </row>
     <row r="860" spans="2:6" ht="12.5">
-      <c r="B860" s="57"/>
+      <c r="B860" s="56"/>
       <c r="F860" s="1"/>
     </row>
     <row r="861" spans="2:6" ht="12.5">
-      <c r="B861" s="57"/>
+      <c r="B861" s="56"/>
       <c r="F861" s="1"/>
     </row>
     <row r="862" spans="2:6" ht="12.5">
-      <c r="B862" s="57"/>
+      <c r="B862" s="56"/>
       <c r="F862" s="1"/>
     </row>
     <row r="863" spans="2:6" ht="12.5">
-      <c r="B863" s="57"/>
+      <c r="B863" s="56"/>
       <c r="F863" s="1"/>
     </row>
     <row r="864" spans="2:6" ht="12.5">
-      <c r="B864" s="57"/>
+      <c r="B864" s="56"/>
       <c r="F864" s="1"/>
     </row>
     <row r="865" spans="2:6" ht="12.5">
-      <c r="B865" s="57"/>
+      <c r="B865" s="56"/>
       <c r="F865" s="1"/>
     </row>
     <row r="866" spans="2:6" ht="12.5">
-      <c r="B866" s="57"/>
+      <c r="B866" s="56"/>
       <c r="F866" s="1"/>
     </row>
     <row r="867" spans="2:6" ht="12.5">
-      <c r="B867" s="57"/>
+      <c r="B867" s="56"/>
       <c r="F867" s="1"/>
     </row>
     <row r="868" spans="2:6" ht="12.5">
-      <c r="B868" s="57"/>
+      <c r="B868" s="56"/>
       <c r="F868" s="1"/>
     </row>
     <row r="869" spans="2:6" ht="12.5">
-      <c r="B869" s="57"/>
+      <c r="B869" s="56"/>
       <c r="F869" s="1"/>
     </row>
     <row r="870" spans="2:6" ht="12.5">
-      <c r="B870" s="57"/>
+      <c r="B870" s="56"/>
       <c r="F870" s="1"/>
     </row>
     <row r="871" spans="2:6" ht="12.5">
-      <c r="B871" s="57"/>
+      <c r="B871" s="56"/>
       <c r="F871" s="1"/>
     </row>
     <row r="872" spans="2:6" ht="12.5">
-      <c r="B872" s="57"/>
+      <c r="B872" s="56"/>
       <c r="F872" s="1"/>
     </row>
     <row r="873" spans="2:6" ht="12.5">
-      <c r="B873" s="57"/>
+      <c r="B873" s="56"/>
       <c r="F873" s="1"/>
     </row>
     <row r="874" spans="2:6" ht="12.5">
-      <c r="B874" s="57"/>
+      <c r="B874" s="56"/>
       <c r="F874" s="1"/>
     </row>
     <row r="875" spans="2:6" ht="12.5">
-      <c r="B875" s="57"/>
+      <c r="B875" s="56"/>
       <c r="F875" s="1"/>
     </row>
     <row r="876" spans="2:6" ht="12.5">
-      <c r="B876" s="57"/>
+      <c r="B876" s="56"/>
       <c r="F876" s="1"/>
     </row>
     <row r="877" spans="2:6" ht="12.5">
-      <c r="B877" s="57"/>
+      <c r="B877" s="56"/>
       <c r="F877" s="1"/>
     </row>
     <row r="878" spans="2:6" ht="12.5">
-      <c r="B878" s="57"/>
+      <c r="B878" s="56"/>
       <c r="F878" s="1"/>
     </row>
     <row r="879" spans="2:6" ht="12.5">
-      <c r="B879" s="57"/>
+      <c r="B879" s="56"/>
       <c r="F879" s="1"/>
     </row>
     <row r="880" spans="2:6" ht="12.5">
-      <c r="B880" s="57"/>
+      <c r="B880" s="56"/>
       <c r="F880" s="1"/>
     </row>
     <row r="881" spans="2:6" ht="12.5">
-      <c r="B881" s="57"/>
+      <c r="B881" s="56"/>
       <c r="F881" s="1"/>
     </row>
     <row r="882" spans="2:6" ht="12.5">
-      <c r="B882" s="57"/>
+      <c r="B882" s="56"/>
       <c r="F882" s="1"/>
     </row>
     <row r="883" spans="2:6" ht="12.5">
-      <c r="B883" s="57"/>
+      <c r="B883" s="56"/>
       <c r="F883" s="1"/>
     </row>
     <row r="884" spans="2:6" ht="12.5">
-      <c r="B884" s="57"/>
+      <c r="B884" s="56"/>
       <c r="F884" s="1"/>
     </row>
     <row r="885" spans="2:6" ht="12.5">
-      <c r="B885" s="57"/>
+      <c r="B885" s="56"/>
       <c r="F885" s="1"/>
     </row>
     <row r="886" spans="2:6" ht="12.5">
-      <c r="B886" s="57"/>
+      <c r="B886" s="56"/>
       <c r="F886" s="1"/>
     </row>
     <row r="887" spans="2:6" ht="12.5">
-      <c r="B887" s="57"/>
+      <c r="B887" s="56"/>
       <c r="F887" s="1"/>
     </row>
     <row r="888" spans="2:6" ht="12.5">
-      <c r="B888" s="57"/>
+      <c r="B888" s="56"/>
       <c r="F888" s="1"/>
     </row>
     <row r="889" spans="2:6" ht="12.5">
-      <c r="B889" s="57"/>
+      <c r="B889" s="56"/>
       <c r="F889" s="1"/>
     </row>
     <row r="890" spans="2:6" ht="12.5">
-      <c r="B890" s="57"/>
+      <c r="B890" s="56"/>
       <c r="F890" s="1"/>
     </row>
     <row r="891" spans="2:6" ht="12.5">
-      <c r="B891" s="57"/>
+      <c r="B891" s="56"/>
       <c r="F891" s="1"/>
     </row>
     <row r="892" spans="2:6" ht="12.5">
-      <c r="B892" s="57"/>
+      <c r="B892" s="56"/>
       <c r="F892" s="1"/>
     </row>
     <row r="893" spans="2:6" ht="12.5">
-      <c r="B893" s="57"/>
+      <c r="B893" s="56"/>
       <c r="F893" s="1"/>
     </row>
     <row r="894" spans="2:6" ht="12.5">
-      <c r="B894" s="57"/>
+      <c r="B894" s="56"/>
       <c r="F894" s="1"/>
     </row>
     <row r="895" spans="2:6" ht="12.5">
-      <c r="B895" s="57"/>
+      <c r="B895" s="56"/>
       <c r="F895" s="1"/>
     </row>
     <row r="896" spans="2:6" ht="12.5">
-      <c r="B896" s="57"/>
+      <c r="B896" s="56"/>
       <c r="F896" s="1"/>
     </row>
     <row r="897" spans="2:6" ht="12.5">
-      <c r="B897" s="57"/>
+      <c r="B897" s="56"/>
       <c r="F897" s="1"/>
     </row>
     <row r="898" spans="2:6" ht="12.5">
-      <c r="B898" s="57"/>
+      <c r="B898" s="56"/>
       <c r="F898" s="1"/>
     </row>
     <row r="899" spans="2:6" ht="12.5">
-      <c r="B899" s="57"/>
+      <c r="B899" s="56"/>
       <c r="F899" s="1"/>
     </row>
     <row r="900" spans="2:6" ht="12.5">
-      <c r="B900" s="57"/>
+      <c r="B900" s="56"/>
       <c r="F900" s="1"/>
     </row>
     <row r="901" spans="2:6" ht="12.5">
-      <c r="B901" s="57"/>
+      <c r="B901" s="56"/>
       <c r="F901" s="1"/>
     </row>
     <row r="902" spans="2:6" ht="12.5">
-      <c r="B902" s="57"/>
+      <c r="B902" s="56"/>
       <c r="F902" s="1"/>
     </row>
     <row r="903" spans="2:6" ht="12.5">
-      <c r="B903" s="57"/>
+      <c r="B903" s="56"/>
       <c r="F903" s="1"/>
     </row>
     <row r="904" spans="2:6" ht="12.5">
-      <c r="B904" s="57"/>
+      <c r="B904" s="56"/>
       <c r="F904" s="1"/>
     </row>
     <row r="905" spans="2:6" ht="12.5">
-      <c r="B905" s="57"/>
+      <c r="B905" s="56"/>
       <c r="F905" s="1"/>
     </row>
     <row r="906" spans="2:6" ht="12.5">
-      <c r="B906" s="57"/>
+      <c r="B906" s="56"/>
       <c r="F906" s="1"/>
     </row>
     <row r="907" spans="2:6" ht="12.5">
-      <c r="B907" s="57"/>
+      <c r="B907" s="56"/>
       <c r="F907" s="1"/>
     </row>
     <row r="908" spans="2:6" ht="12.5">
-      <c r="B908" s="57"/>
+      <c r="B908" s="56"/>
       <c r="F908" s="1"/>
     </row>
     <row r="909" spans="2:6" ht="12.5">
-      <c r="B909" s="57"/>
+      <c r="B909" s="56"/>
       <c r="F909" s="1"/>
     </row>
     <row r="910" spans="2:6" ht="12.5">
-      <c r="B910" s="57"/>
+      <c r="B910" s="56"/>
       <c r="F910" s="1"/>
     </row>
     <row r="911" spans="2:6" ht="12.5">
-      <c r="B911" s="57"/>
+      <c r="B911" s="56"/>
       <c r="F911" s="1"/>
     </row>
     <row r="912" spans="2:6" ht="12.5">
-      <c r="B912" s="57"/>
+      <c r="B912" s="56"/>
       <c r="F912" s="1"/>
     </row>
     <row r="913" spans="2:6" ht="12.5">
-      <c r="B913" s="57"/>
+      <c r="B913" s="56"/>
       <c r="F913" s="1"/>
     </row>
     <row r="914" spans="2:6" ht="12.5">
-      <c r="B914" s="57"/>
+      <c r="B914" s="56"/>
       <c r="F914" s="1"/>
     </row>
     <row r="915" spans="2:6" ht="12.5">
-      <c r="B915" s="57"/>
+      <c r="B915" s="56"/>
       <c r="F915" s="1"/>
     </row>
     <row r="916" spans="2:6" ht="12.5">
-      <c r="B916" s="57"/>
+      <c r="B916" s="56"/>
       <c r="F916" s="1"/>
     </row>
     <row r="917" spans="2:6" ht="12.5">
-      <c r="B917" s="57"/>
+      <c r="B917" s="56"/>
       <c r="F917" s="1"/>
     </row>
     <row r="918" spans="2:6" ht="12.5">
-      <c r="B918" s="57"/>
+      <c r="B918" s="56"/>
       <c r="F918" s="1"/>
     </row>
     <row r="919" spans="2:6" ht="12.5">
-      <c r="B919" s="57"/>
+      <c r="B919" s="56"/>
       <c r="F919" s="1"/>
     </row>
     <row r="920" spans="2:6" ht="12.5">
-      <c r="B920" s="57"/>
+      <c r="B920" s="56"/>
       <c r="F920" s="1"/>
     </row>
     <row r="921" spans="2:6" ht="12.5">
-      <c r="B921" s="57"/>
+      <c r="B921" s="56"/>
       <c r="F921" s="1"/>
     </row>
     <row r="922" spans="2:6" ht="12.5">
-      <c r="B922" s="57"/>
+      <c r="B922" s="56"/>
       <c r="F922" s="1"/>
     </row>
     <row r="923" spans="2:6" ht="12.5">
-      <c r="B923" s="57"/>
+      <c r="B923" s="56"/>
       <c r="F923" s="1"/>
     </row>
     <row r="924" spans="2:6" ht="12.5">
-      <c r="B924" s="57"/>
+      <c r="B924" s="56"/>
       <c r="F924" s="1"/>
     </row>
     <row r="925" spans="2:6" ht="12.5">
-      <c r="B925" s="57"/>
+      <c r="B925" s="56"/>
       <c r="F925" s="1"/>
     </row>
     <row r="926" spans="2:6" ht="12.5">
-      <c r="B926" s="57"/>
+      <c r="B926" s="56"/>
       <c r="F926" s="1"/>
     </row>
     <row r="927" spans="2:6" ht="12.5">
-      <c r="B927" s="57"/>
+      <c r="B927" s="56"/>
       <c r="F927" s="1"/>
     </row>
     <row r="928" spans="2:6" ht="12.5">
-      <c r="B928" s="57"/>
+      <c r="B928" s="56"/>
       <c r="F928" s="1"/>
     </row>
     <row r="929" spans="2:6" ht="12.5">
-      <c r="B929" s="57"/>
+      <c r="B929" s="56"/>
       <c r="F929" s="1"/>
     </row>
     <row r="930" spans="2:6" ht="12.5">
-      <c r="B930" s="57"/>
+      <c r="B930" s="56"/>
       <c r="F930" s="1"/>
     </row>
     <row r="931" spans="2:6" ht="12.5">
-      <c r="B931" s="57"/>
+      <c r="B931" s="56"/>
       <c r="F931" s="1"/>
     </row>
     <row r="932" spans="2:6" ht="12.5">
-      <c r="B932" s="57"/>
+      <c r="B932" s="56"/>
       <c r="F932" s="1"/>
     </row>
     <row r="933" spans="2:6" ht="12.5">
-      <c r="B933" s="57"/>
+      <c r="B933" s="56"/>
       <c r="F933" s="1"/>
     </row>
     <row r="934" spans="2:6" ht="12.5">
-      <c r="B934" s="57"/>
+      <c r="B934" s="56"/>
       <c r="F934" s="1"/>
     </row>
     <row r="935" spans="2:6" ht="12.5">
-      <c r="B935" s="57"/>
+      <c r="B935" s="56"/>
       <c r="F935" s="1"/>
     </row>
     <row r="936" spans="2:6" ht="12.5">
-      <c r="B936" s="57"/>
+      <c r="B936" s="56"/>
       <c r="F936" s="1"/>
     </row>
     <row r="937" spans="2:6" ht="12.5">
-      <c r="B937" s="57"/>
+      <c r="B937" s="56"/>
       <c r="F937" s="1"/>
     </row>
     <row r="938" spans="2:6" ht="12.5">
-      <c r="B938" s="57"/>
+      <c r="B938" s="56"/>
       <c r="F938" s="1"/>
     </row>
     <row r="939" spans="2:6" ht="12.5">
-      <c r="B939" s="57"/>
+      <c r="B939" s="56"/>
       <c r="F939" s="1"/>
     </row>
     <row r="940" spans="2:6" ht="12.5">
-      <c r="B940" s="57"/>
+      <c r="B940" s="56"/>
       <c r="F940" s="1"/>
     </row>
     <row r="941" spans="2:6" ht="12.5">
-      <c r="B941" s="57"/>
+      <c r="B941" s="56"/>
       <c r="F941" s="1"/>
     </row>
     <row r="942" spans="2:6" ht="12.5">
-      <c r="B942" s="57"/>
+      <c r="B942" s="56"/>
       <c r="F942" s="1"/>
     </row>
     <row r="943" spans="2:6" ht="12.5">
-      <c r="B943" s="57"/>
+      <c r="B943" s="56"/>
       <c r="F943" s="1"/>
     </row>
     <row r="944" spans="2:6" ht="12.5">
-      <c r="B944" s="57"/>
+      <c r="B944" s="56"/>
       <c r="F944" s="1"/>
     </row>
     <row r="945" spans="2:6" ht="12.5">
-      <c r="B945" s="57"/>
+      <c r="B945" s="56"/>
       <c r="F945" s="1"/>
     </row>
     <row r="946" spans="2:6" ht="12.5">
-      <c r="B946" s="57"/>
+      <c r="B946" s="56"/>
       <c r="F946" s="1"/>
     </row>
     <row r="947" spans="2:6" ht="12.5">
-      <c r="B947" s="57"/>
+      <c r="B947" s="56"/>
       <c r="F947" s="1"/>
     </row>
     <row r="948" spans="2:6" ht="12.5">
-      <c r="B948" s="57"/>
+      <c r="B948" s="56"/>
       <c r="F948" s="1"/>
     </row>
     <row r="949" spans="2:6" ht="12.5">
-      <c r="B949" s="57"/>
+      <c r="B949" s="56"/>
       <c r="F949" s="1"/>
     </row>
     <row r="950" spans="2:6" ht="12.5">
-      <c r="B950" s="57"/>
+      <c r="B950" s="56"/>
       <c r="F950" s="1"/>
     </row>
     <row r="951" spans="2:6" ht="12.5">
-      <c r="B951" s="57"/>
+      <c r="B951" s="56"/>
       <c r="F951" s="1"/>
     </row>
     <row r="952" spans="2:6" ht="12.5">
-      <c r="B952" s="57"/>
+      <c r="B952" s="56"/>
       <c r="F952" s="1"/>
     </row>
     <row r="953" spans="2:6" ht="12.5">
-      <c r="B953" s="57"/>
+      <c r="B953" s="56"/>
       <c r="F953" s="1"/>
     </row>
     <row r="954" spans="2:6" ht="12.5">
-      <c r="B954" s="57"/>
+      <c r="B954" s="56"/>
       <c r="F954" s="1"/>
     </row>
     <row r="955" spans="2:6" ht="12.5">
-      <c r="B955" s="57"/>
+      <c r="B955" s="56"/>
       <c r="F955" s="1"/>
     </row>
     <row r="956" spans="2:6" ht="12.5">
-      <c r="B956" s="57"/>
+      <c r="B956" s="56"/>
       <c r="F956" s="1"/>
     </row>
     <row r="957" spans="2:6" ht="12.5">
-      <c r="B957" s="57"/>
+      <c r="B957" s="56"/>
       <c r="F957" s="1"/>
     </row>
     <row r="958" spans="2:6" ht="12.5">
-      <c r="B958" s="57"/>
+      <c r="B958" s="56"/>
       <c r="F958" s="1"/>
     </row>
     <row r="959" spans="2:6" ht="12.5">
-      <c r="B959" s="57"/>
+      <c r="B959" s="56"/>
       <c r="F959" s="1"/>
     </row>
     <row r="960" spans="2:6" ht="12.5">
-      <c r="B960" s="57"/>
+      <c r="B960" s="56"/>
       <c r="F960" s="1"/>
     </row>
     <row r="961" spans="2:6" ht="12.5">
-      <c r="B961" s="57"/>
+      <c r="B961" s="56"/>
       <c r="F961" s="1"/>
     </row>
     <row r="962" spans="2:6" ht="12.5">
-      <c r="B962" s="57"/>
+      <c r="B962" s="56"/>
       <c r="F962" s="1"/>
     </row>
     <row r="963" spans="2:6" ht="12.5">
-      <c r="B963" s="57"/>
+      <c r="B963" s="56"/>
       <c r="F963" s="1"/>
     </row>
     <row r="964" spans="2:6" ht="12.5">
-      <c r="B964" s="57"/>
+      <c r="B964" s="56"/>
       <c r="F964" s="1"/>
     </row>
     <row r="965" spans="2:6" ht="12.5">
-      <c r="B965" s="57"/>
+      <c r="B965" s="56"/>
       <c r="F965" s="1"/>
     </row>
     <row r="966" spans="2:6" ht="12.5">
-      <c r="B966" s="57"/>
+      <c r="B966" s="56"/>
       <c r="F966" s="1"/>
     </row>
     <row r="967" spans="2:6" ht="12.5">
-      <c r="B967" s="57"/>
+      <c r="B967" s="56"/>
       <c r="F967" s="1"/>
     </row>
     <row r="968" spans="2:6" ht="12.5">
-      <c r="B968" s="57"/>
+      <c r="B968" s="56"/>
       <c r="F968" s="1"/>
     </row>
     <row r="969" spans="2:6" ht="12.5">
-      <c r="B969" s="57"/>
+      <c r="B969" s="56"/>
       <c r="F969" s="1"/>
     </row>
     <row r="970" spans="2:6" ht="12.5">
-      <c r="B970" s="57"/>
+      <c r="B970" s="56"/>
       <c r="F970" s="1"/>
     </row>
     <row r="971" spans="2:6" ht="12.5">
-      <c r="B971" s="57"/>
+      <c r="B971" s="56"/>
       <c r="F971" s="1"/>
     </row>
     <row r="972" spans="2:6" ht="12.5">
-      <c r="B972" s="57"/>
+      <c r="B972" s="56"/>
       <c r="F972" s="1"/>
     </row>
     <row r="973" spans="2:6" ht="12.5">
-      <c r="B973" s="57"/>
+      <c r="B973" s="56"/>
       <c r="F973" s="1"/>
     </row>
     <row r="974" spans="2:6" ht="12.5">
-      <c r="B974" s="57"/>
+      <c r="B974" s="56"/>
       <c r="F974" s="1"/>
     </row>
     <row r="975" spans="2:6" ht="12.5">
-      <c r="B975" s="57"/>
+      <c r="B975" s="56"/>
       <c r="F975" s="1"/>
     </row>
     <row r="976" spans="2:6" ht="12.5">
-      <c r="B976" s="57"/>
+      <c r="B976" s="56"/>
       <c r="F976" s="1"/>
     </row>
     <row r="977" spans="2:6" ht="12.5">
-      <c r="B977" s="57"/>
+      <c r="B977" s="56"/>
       <c r="F977" s="1"/>
     </row>
     <row r="978" spans="2:6" ht="12.5">
-      <c r="B978" s="57"/>
+      <c r="B978" s="56"/>
       <c r="F978" s="1"/>
     </row>
     <row r="979" spans="2:6" ht="12.5">
-      <c r="B979" s="57"/>
+      <c r="B979" s="56"/>
       <c r="F979" s="1"/>
     </row>
     <row r="980" spans="2:6" ht="12.5">
-      <c r="B980" s="57"/>
+      <c r="B980" s="56"/>
       <c r="F980" s="1"/>
     </row>
     <row r="981" spans="2:6" ht="12.5">
-      <c r="B981" s="57"/>
+      <c r="B981" s="56"/>
       <c r="F981" s="1"/>
     </row>
     <row r="982" spans="2:6" ht="12.5">
-      <c r="B982" s="57"/>
+      <c r="B982" s="56"/>
       <c r="F982" s="1"/>
     </row>
     <row r="983" spans="2:6" ht="12.5">
-      <c r="B983" s="57"/>
+      <c r="B983" s="56"/>
       <c r="F983" s="1"/>
     </row>
     <row r="984" spans="2:6" ht="12.5">
-      <c r="B984" s="57"/>
+      <c r="B984" s="56"/>
       <c r="F984" s="1"/>
     </row>
     <row r="985" spans="2:6" ht="12.5">
-      <c r="B985" s="57"/>
+      <c r="B985" s="56"/>
       <c r="F985" s="1"/>
     </row>
     <row r="986" spans="2:6" ht="12.5">
-      <c r="B986" s="57"/>
+      <c r="B986" s="56"/>
       <c r="F986" s="1"/>
     </row>
     <row r="987" spans="2:6" ht="12.5">
-      <c r="B987" s="57"/>
+      <c r="B987" s="56"/>
       <c r="F987" s="1"/>
     </row>
     <row r="988" spans="2:6" ht="12.5">
-      <c r="B988" s="57"/>
+      <c r="B988" s="56"/>
       <c r="F988" s="1"/>
     </row>
     <row r="989" spans="2:6" ht="12.5">
-      <c r="B989" s="57"/>
+      <c r="B989" s="56"/>
       <c r="F989" s="1"/>
     </row>
     <row r="990" spans="2:6" ht="12.5">
-      <c r="B990" s="57"/>
+      <c r="B990" s="56"/>
       <c r="F990" s="1"/>
     </row>
     <row r="991" spans="2:6" ht="12.5">
-      <c r="B991" s="57"/>
+      <c r="B991" s="56"/>
       <c r="F991" s="1"/>
     </row>
     <row r="992" spans="2:6" ht="12.5">
-      <c r="B992" s="57"/>
+      <c r="B992" s="56"/>
       <c r="F992" s="1"/>
     </row>
     <row r="993" spans="2:6" ht="12.5">
-      <c r="B993" s="57"/>
+      <c r="B993" s="56"/>
       <c r="F993" s="1"/>
     </row>
     <row r="994" spans="2:6" ht="12.5">
-      <c r="B994" s="57"/>
+      <c r="B994" s="56"/>
       <c r="F994" s="1"/>
     </row>
     <row r="995" spans="2:6" ht="12.5">
-      <c r="B995" s="57"/>
+      <c r="B995" s="56"/>
       <c r="F995" s="1"/>
     </row>
     <row r="996" spans="2:6" ht="12.5">
-      <c r="B996" s="57"/>
+      <c r="B996" s="56"/>
       <c r="F996" s="1"/>
     </row>
     <row r="997" spans="2:6" ht="12.5">
-      <c r="B997" s="57"/>
+      <c r="B997" s="56"/>
       <c r="F997" s="1"/>
     </row>
     <row r="998" spans="2:6" ht="12.5">
-      <c r="B998" s="57"/>
+      <c r="B998" s="56"/>
       <c r="F998" s="1"/>
     </row>
   </sheetData>
@@ -39732,8 +39752,8 @@
   </sheetPr>
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -39745,8 +39765,8 @@
       <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
-        <v>359</v>
+      <c r="C1" s="88" t="s">
+        <v>348</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>2</v>
@@ -39755,16 +39775,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="29"/>
@@ -39789,29 +39809,29 @@
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
     </row>
-    <row r="2" spans="1:31" ht="39.5" thickTop="1">
+    <row r="2" spans="1:31" ht="40" thickTop="1">
       <c r="A2" s="31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="64">
+        <v>191</v>
+      </c>
+      <c r="F2" s="63">
         <v>45320</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -39836,25 +39856,25 @@
     </row>
     <row r="3" spans="1:31" ht="104">
       <c r="A3" s="31" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="64">
+        <v>195</v>
+      </c>
+      <c r="F3" s="63">
         <v>45322</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -39883,27 +39903,27 @@
     </row>
     <row r="4" spans="1:31" ht="26">
       <c r="A4" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F4" s="13">
         <v>45323</v>
       </c>
-      <c r="G4" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4" s="65"/>
+      <c r="G4" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="64"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
@@ -39929,19 +39949,19 @@
     </row>
     <row r="5" spans="1:31" ht="63">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F5" s="13">
         <v>45327</v>
@@ -39973,19 +39993,19 @@
     </row>
     <row r="6" spans="1:31" ht="26">
       <c r="A6" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F6" s="13">
         <v>45327</v>
@@ -40017,19 +40037,19 @@
     </row>
     <row r="7" spans="1:31" ht="26">
       <c r="A7" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F7" s="13">
         <v>45327</v>
@@ -40061,19 +40081,19 @@
     </row>
     <row r="8" spans="1:31" ht="39">
       <c r="A8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F8" s="13">
         <v>45327</v>
@@ -40081,7 +40101,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -40106,21 +40126,21 @@
     </row>
     <row r="9" spans="1:31" ht="52">
       <c r="A9" s="31" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="64">
+        <v>219</v>
+      </c>
+      <c r="F9" s="63">
         <v>45329</v>
       </c>
       <c r="G9" s="21"/>
@@ -40151,21 +40171,21 @@
     </row>
     <row r="10" spans="1:31" ht="39">
       <c r="A10" s="31" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="64">
+        <v>222</v>
+      </c>
+      <c r="F10" s="63">
         <v>45329</v>
       </c>
       <c r="G10" s="21"/>
@@ -40198,21 +40218,21 @@
     </row>
     <row r="11" spans="1:31" ht="39.5" thickBot="1">
       <c r="A11" s="31" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="64">
+        <v>227</v>
+      </c>
+      <c r="F11" s="63">
         <v>45332</v>
       </c>
       <c r="G11" s="21"/>
@@ -40244,67 +40264,67 @@
       <c r="AE11" s="21"/>
     </row>
     <row r="12" spans="1:31" ht="78.5" thickTop="1">
-      <c r="A12" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="70">
+      <c r="A12" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="69">
         <v>45333</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
     </row>
     <row r="13" spans="1:31" ht="63">
       <c r="A13" s="31" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="64">
+        <v>234</v>
+      </c>
+      <c r="F13" s="63">
         <v>45334</v>
       </c>
       <c r="G13" s="21"/>
@@ -40335,21 +40355,21 @@
     </row>
     <row r="14" spans="1:31" ht="39">
       <c r="A14" s="31" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="64">
+        <v>238</v>
+      </c>
+      <c r="F14" s="63">
         <v>45334</v>
       </c>
       <c r="G14" s="21"/>
@@ -40382,21 +40402,21 @@
     </row>
     <row r="15" spans="1:31" ht="39">
       <c r="A15" s="31" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="64">
+        <v>240</v>
+      </c>
+      <c r="F15" s="63">
         <v>45334</v>
       </c>
       <c r="G15" s="21"/>
@@ -40427,21 +40447,21 @@
     </row>
     <row r="16" spans="1:31" ht="39.5" thickBot="1">
       <c r="A16" s="31" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="F16" s="64">
+        <v>242</v>
+      </c>
+      <c r="F16" s="63">
         <v>45334</v>
       </c>
       <c r="G16" s="21"/>
@@ -40471,67 +40491,64 @@
       <c r="AE16" s="21"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="57">
+        <v>45337</v>
+      </c>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A18" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="58">
+      <c r="F18" s="59">
         <v>45337</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-    </row>
-    <row r="18" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A18" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="60">
-        <v>45337</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -40557,23 +40574,21 @@
       <c r="AD18" s="21"/>
     </row>
     <row r="19" spans="1:31" ht="62.5">
-      <c r="A19" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>259</v>
+      <c r="A19" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>252</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="E19" s="60">
+        <v>245</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="59">
         <v>45337</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -40600,21 +40615,21 @@
     </row>
     <row r="20" spans="1:31" ht="63">
       <c r="A20" s="31" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" s="64">
+        <v>257</v>
+      </c>
+      <c r="F20" s="63">
         <v>45337</v>
       </c>
       <c r="G20" s="21"/>
@@ -40645,21 +40660,21 @@
     </row>
     <row r="21" spans="1:31" ht="63">
       <c r="A21" s="31" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="64">
+        <v>257</v>
+      </c>
+      <c r="F21" s="63">
         <v>45337</v>
       </c>
       <c r="G21" s="21"/>
@@ -40690,27 +40705,27 @@
     </row>
     <row r="22" spans="1:31" ht="38">
       <c r="A22" s="31" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="64">
+        <v>263</v>
+      </c>
+      <c r="F22" s="63">
         <v>45337</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="38" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -40736,21 +40751,21 @@
     </row>
     <row r="23" spans="1:31" ht="26">
       <c r="A23" s="31" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="F23" s="64">
+        <v>268</v>
+      </c>
+      <c r="F23" s="63">
         <v>45337</v>
       </c>
       <c r="G23" s="21"/>
@@ -40781,10 +40796,10 @@
     </row>
     <row r="24" spans="1:31" ht="39">
       <c r="A24" s="31" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>6</v>
@@ -40793,15 +40808,15 @@
         <v>22</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="F24" s="91">
+        <v>42036</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="92" t="s">
-        <v>280</v>
+      <c r="I24" s="90" t="s">
+        <v>353</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -40827,21 +40842,21 @@
     </row>
     <row r="25" spans="1:31" ht="52">
       <c r="A25" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>282</v>
+        <v>272</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>273</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" s="64">
+        <v>275</v>
+      </c>
+      <c r="F25" s="63">
         <v>45337</v>
       </c>
       <c r="G25" s="33"/>
@@ -40872,21 +40887,21 @@
     </row>
     <row r="26" spans="1:31" ht="78">
       <c r="A26" s="21" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="F26" s="64">
+        <v>280</v>
+      </c>
+      <c r="F26" s="63">
         <v>45338</v>
       </c>
       <c r="G26" s="33"/>
@@ -40917,21 +40932,21 @@
     </row>
     <row r="27" spans="1:31" ht="65">
       <c r="A27" s="21" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="F27" s="64">
+        <v>284</v>
+      </c>
+      <c r="F27" s="63">
         <v>45338</v>
       </c>
       <c r="G27" s="33"/>
@@ -40962,21 +40977,21 @@
     </row>
     <row r="28" spans="1:31" ht="39">
       <c r="A28" s="31" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" s="64">
+        <v>287</v>
+      </c>
+      <c r="F28" s="63">
         <v>45341</v>
       </c>
       <c r="G28" s="21"/>
@@ -41007,21 +41022,21 @@
     </row>
     <row r="29" spans="1:31" ht="52">
       <c r="A29" s="31" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F29" s="64">
+        <v>290</v>
+      </c>
+      <c r="F29" s="63">
         <v>45345</v>
       </c>
       <c r="G29" s="21"/>
@@ -41051,22 +41066,22 @@
       <c r="AE29" s="21"/>
     </row>
     <row r="30" spans="1:31" ht="65">
-      <c r="A30" s="80" t="s">
-        <v>300</v>
+      <c r="A30" s="79" t="s">
+        <v>291</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F30" s="64">
+        <v>294</v>
+      </c>
+      <c r="F30" s="63">
         <v>45346</v>
       </c>
       <c r="G30" s="21"/>
@@ -41097,27 +41112,27 @@
     </row>
     <row r="31" spans="1:31" ht="52.5" thickBot="1">
       <c r="A31" s="31" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="F31" s="64">
+        <v>297</v>
+      </c>
+      <c r="F31" s="63">
         <v>45350</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
@@ -41143,68 +41158,68 @@
       <c r="AE31" s="21"/>
     </row>
     <row r="32" spans="1:31" ht="13.5" thickTop="1">
-      <c r="A32" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
+      <c r="A32" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" s="69">
+        <v>45323</v>
+      </c>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
     </row>
     <row r="33" spans="1:31" ht="26" thickBot="1">
       <c r="A33" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="83" t="s">
-        <v>313</v>
+        <v>161</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>303</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="64">
+        <v>165</v>
+      </c>
+      <c r="F33" s="63">
         <v>45351</v>
       </c>
       <c r="G33" s="33"/>
@@ -41234,73 +41249,73 @@
       <c r="AE33" s="21"/>
     </row>
     <row r="34" spans="1:31" ht="38.5" thickTop="1">
-      <c r="A34" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="68" t="s">
+      <c r="A34" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>318</v>
-      </c>
-      <c r="F34" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
+      <c r="D34" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
     </row>
     <row r="35" spans="1:31" ht="63">
       <c r="A35" s="31" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F35" s="84">
+        <v>312</v>
+      </c>
+      <c r="F35" s="83">
         <v>45352</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="26" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
@@ -41326,27 +41341,27 @@
     </row>
     <row r="36" spans="1:31" ht="25.5">
       <c r="A36" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="B36" s="83" t="s">
-        <v>325</v>
+        <v>313</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>314</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="F36" s="64">
+        <v>316</v>
+      </c>
+      <c r="F36" s="63">
         <v>45352</v>
       </c>
-      <c r="G36" s="85" t="s">
-        <v>328</v>
-      </c>
-      <c r="H36" s="85"/>
+      <c r="G36" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="84"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -41373,21 +41388,21 @@
     </row>
     <row r="37" spans="1:31" ht="65">
       <c r="A37" s="31" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="F37" s="64">
+        <v>321</v>
+      </c>
+      <c r="F37" s="63">
         <v>45352</v>
       </c>
       <c r="H37" s="21"/>
@@ -41417,18 +41432,18 @@
     </row>
     <row r="38" spans="1:31" ht="13">
       <c r="A38" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B38" s="86" t="s">
-        <v>335</v>
+        <v>323</v>
+      </c>
+      <c r="B38" s="85" t="s">
+        <v>324</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="F38" s="87">
+        <v>326</v>
+      </c>
+      <c r="F38" s="83">
         <v>45354</v>
       </c>
       <c r="G38" s="21"/>
@@ -41459,29 +41474,29 @@
     </row>
     <row r="39" spans="1:31" ht="52">
       <c r="A39" s="31" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="F39" s="64">
+        <v>330</v>
+      </c>
+      <c r="F39" s="63">
         <v>45361</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="26" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
@@ -41507,10 +41522,10 @@
     </row>
     <row r="40" spans="1:31" ht="52">
       <c r="A40" s="34" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>6</v>
@@ -41519,9 +41534,9 @@
         <v>62</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="F40" s="64">
+        <v>335</v>
+      </c>
+      <c r="F40" s="63">
         <v>45359</v>
       </c>
       <c r="G40" s="21"/>
@@ -41552,10 +41567,10 @@
     </row>
     <row r="41" spans="1:31" ht="39.5" thickBot="1">
       <c r="A41" s="34" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>6</v>
@@ -41564,9 +41579,9 @@
         <v>62</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="F41" s="64">
+        <v>337</v>
+      </c>
+      <c r="F41" s="63">
         <v>45359</v>
       </c>
       <c r="G41" s="21"/>
@@ -41596,65 +41611,64 @@
       <c r="AE41" s="21"/>
     </row>
     <row r="42" spans="1:31" ht="52.5" thickTop="1">
-      <c r="A42" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="C42" s="68" t="s">
+      <c r="A42" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="F42" s="89">
+      <c r="E42" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F42" s="87">
         <v>45359</v>
       </c>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="68"/>
-      <c r="Z42" s="68"/>
-      <c r="AA42" s="68"/>
-      <c r="AB42" s="68"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="68"/>
-      <c r="AE42" s="68"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="67"/>
     </row>
     <row r="43" spans="1:31" ht="38">
       <c r="A43" s="36" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E43" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21" t="s">
         <v>29</v>
@@ -41684,28 +41698,28 @@
       <c r="AE43" s="21"/>
     </row>
     <row r="44" spans="1:31" ht="38">
-      <c r="A44" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="51" t="s">
+      <c r="A44" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="H44" s="51"/>
+      <c r="E44" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -41727,7 +41741,7 @@
     <hyperlink ref="E16" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
     <hyperlink ref="D17" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
     <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="F18" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="E18" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
     <hyperlink ref="D19" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
     <hyperlink ref="E20" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
     <hyperlink ref="E21" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
@@ -41735,7 +41749,7 @@
     <hyperlink ref="I22" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
     <hyperlink ref="E23" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
     <hyperlink ref="E24" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
-    <hyperlink ref="I24" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
+    <hyperlink ref="I24" r:id="rId27" display="https://drive.google.com/file/d/1wH9eLlNwM6U9tQgObQcU7I28zGdnUlPA/view?usp=sharing" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
     <hyperlink ref="E25" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
     <hyperlink ref="E26" r:id="rId29" xr:uid="{00000000-0004-0000-0700-00001C000000}"/>
     <hyperlink ref="E27" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
